--- a/faza1_tabela.xlsx
+++ b/faza1_tabela.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8AE502EB0B3D2FD929D5ECC45C0837D65FA74751" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="737">
   <si>
     <t>ProgrammingLanguageName</t>
   </si>
@@ -2042,12 +2041,207 @@
   </si>
   <si>
     <t>Dohvati vrednost i ispis je na standarnom izlazu na konzoli.</t>
+  </si>
+  <si>
+    <t>2_convertIntToString5</t>
+  </si>
+  <si>
+    <t>Uradi obradu konverzije celobrojnog broja u string.</t>
+  </si>
+  <si>
+    <t>2_convertIntToString6</t>
+  </si>
+  <si>
+    <t>Pretvaranje celih brojeva.</t>
+  </si>
+  <si>
+    <t>2_convertIntToString7</t>
+  </si>
+  <si>
+    <t>Pretvaranje brojeva u stringove.</t>
+  </si>
+  <si>
+    <t>2_convertIntToString8</t>
+  </si>
+  <si>
+    <t>Prebaci ceo broj u string.</t>
+  </si>
+  <si>
+    <t>2_convertIntToString9</t>
+  </si>
+  <si>
+    <t>Konvertovanje u string.</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa stringovima. Operacije nad stringovima itd…</t>
+  </si>
+  <si>
+    <t>3_pq1</t>
+  </si>
+  <si>
+    <t>Ubaci u prioritetni red podatke izvucene iz zahteva.</t>
+  </si>
+  <si>
+    <t>3_pq2</t>
+  </si>
+  <si>
+    <t>Uradi obradu zahteva po prioritetima.</t>
+  </si>
+  <si>
+    <t>3_pq3</t>
+  </si>
+  <si>
+    <t>3_pq4</t>
+  </si>
+  <si>
+    <t>3_pq5</t>
+  </si>
+  <si>
+    <t>Varijable izvucene iz klijentskog zahteva ubaciti u prioritetni red.</t>
+  </si>
+  <si>
+    <t>Izbrisati iz prioritetnog reda deset podataka.</t>
+  </si>
+  <si>
+    <t>Obraditi podataka po prioritetima.</t>
+  </si>
+  <si>
+    <t>Fajl sa razlicitim strukturama podataka, Stekovi, redovi itd…</t>
+  </si>
+  <si>
+    <t>4_sud1</t>
+  </si>
+  <si>
+    <t>Konverzija tipova u datum.</t>
+  </si>
+  <si>
+    <t>4_sud2</t>
+  </si>
+  <si>
+    <t>4_sud3</t>
+  </si>
+  <si>
+    <t>4_sud4</t>
+  </si>
+  <si>
+    <t>4_sud5</t>
+  </si>
+  <si>
+    <t>Pretvori stringove primljene kao parametre zahteva u datume.</t>
+  </si>
+  <si>
+    <t>Od niza stringova, formiraj jedan konkatenirani string i probaj da ga pretvoris u datum.</t>
+  </si>
+  <si>
+    <t>Uradi operaciju nad parovima stringova i pretvori rezultat u datum.</t>
+  </si>
+  <si>
+    <t>Podeli string da vise malih delova, i iz tih delova probaj da napravis datum.</t>
+  </si>
+  <si>
+    <t>6_saveListF1</t>
+  </si>
+  <si>
+    <t>Sadrzaj dve liste kombinovane sacuvaj u okviru tekstualnog fajla.</t>
+  </si>
+  <si>
+    <t>6_saveListF2</t>
+  </si>
+  <si>
+    <t>6_saveListF3</t>
+  </si>
+  <si>
+    <t>6_saveListF4</t>
+  </si>
+  <si>
+    <t>6_saveListF5</t>
+  </si>
+  <si>
+    <t>Spoji par listi prosledjenih preko klijenstkoj zahteva i prodaj da ih sacuvas u txt fajlu.</t>
+  </si>
+  <si>
+    <t>Indeksiranu listu sacuvaj u fajlu.</t>
+  </si>
+  <si>
+    <t>Listu interno implementiranu kao jednostruku usnimiti u fajl.</t>
+  </si>
+  <si>
+    <t>Listu interno implementiranu kao dvostruko ulanacanu usnimiti u text fajl.</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa datotekama.</t>
+  </si>
+  <si>
+    <t>8_cm1</t>
+  </si>
+  <si>
+    <t>8_cm2</t>
+  </si>
+  <si>
+    <t>8_cm3</t>
+  </si>
+  <si>
+    <t>8_cm4</t>
+  </si>
+  <si>
+    <t>8_cm5</t>
+  </si>
+  <si>
+    <t>Ubaci u matricu implementiranu kao dvodimenzijalni niz novu vrednost.</t>
+  </si>
+  <si>
+    <t>Iz matrice implementirane preko dvodimenzijalnog niza, uklonoiti element na poziciji 3 3.</t>
+  </si>
+  <si>
+    <t>Iz matrice dohvatiti samo prvi red i ispisati ga na standardnom izlazu.</t>
+  </si>
+  <si>
+    <t>Vratiti elemente koji se nalazi na dijagonali matrice.</t>
+  </si>
+  <si>
+    <t>Pre brisanja matrice zabune ispisi njene elemente.</t>
+  </si>
+  <si>
+    <t>Fajlovi sa razlicitim strukturama podataka.</t>
+  </si>
+  <si>
+    <t>12_aes1</t>
+  </si>
+  <si>
+    <t>Iskoristiti aes enkripciju da bi se zastitili bitni podaci.</t>
+  </si>
+  <si>
+    <t>12_aes2</t>
+  </si>
+  <si>
+    <t>12_aes3</t>
+  </si>
+  <si>
+    <t>12_aes4</t>
+  </si>
+  <si>
+    <t>12_aes5</t>
+  </si>
+  <si>
+    <t>Aes enkripcija promenljivih iz dokument menadzera.</t>
+  </si>
+  <si>
+    <t>Enkriptovanje sifre sa aes algoritmom.</t>
+  </si>
+  <si>
+    <t>Fajlovi za enkripciju sifre.</t>
+  </si>
+  <si>
+    <t>Dekripcija dva ulazna parametra preko aes algoritma.</t>
+  </si>
+  <si>
+    <t>Sifrovanje osetljivih podataka raznim algoritmima za enkripciju.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -2629,7 +2823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2661,27 +2855,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2713,24 +2889,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2906,20 +3064,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B350"/>
+    <sheetView tabSelected="1" topLeftCell="D325" workbookViewId="0">
+      <selection activeCell="E351" sqref="E351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
-    <col min="3" max="3" width="73.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="144.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="3" max="3" width="73.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="5" max="5" width="144.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8362,244 +8520,514 @@
         <v>671</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>5</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
+      <c r="C321" t="s">
+        <v>682</v>
+      </c>
+      <c r="D321" t="s">
+        <v>672</v>
+      </c>
+      <c r="E321" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>5</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
+      <c r="C322" t="s">
+        <v>682</v>
+      </c>
+      <c r="D322" t="s">
+        <v>674</v>
+      </c>
+      <c r="E322" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>5</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
+      <c r="C323" t="s">
+        <v>682</v>
+      </c>
+      <c r="D323" t="s">
+        <v>676</v>
+      </c>
+      <c r="E323" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>5</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
+      <c r="C324" t="s">
+        <v>682</v>
+      </c>
+      <c r="D324" t="s">
+        <v>678</v>
+      </c>
+      <c r="E324" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>5</v>
       </c>
       <c r="B325" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="326" spans="1:2">
+      <c r="C325" t="s">
+        <v>682</v>
+      </c>
+      <c r="D325" t="s">
+        <v>680</v>
+      </c>
+      <c r="E325" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>5</v>
       </c>
       <c r="B326" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="327" spans="1:2">
+      <c r="C326" t="s">
+        <v>693</v>
+      </c>
+      <c r="D326" t="s">
+        <v>683</v>
+      </c>
+      <c r="E326" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>5</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="328" spans="1:2">
+      <c r="C327" t="s">
+        <v>693</v>
+      </c>
+      <c r="D327" t="s">
+        <v>685</v>
+      </c>
+      <c r="E327" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>5</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
+      <c r="C328" t="s">
+        <v>693</v>
+      </c>
+      <c r="D328" t="s">
+        <v>687</v>
+      </c>
+      <c r="E328" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>5</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="330" spans="1:2">
+      <c r="C329" t="s">
+        <v>693</v>
+      </c>
+      <c r="D329" t="s">
+        <v>688</v>
+      </c>
+      <c r="E329" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>5</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="331" spans="1:2">
+      <c r="C330" t="s">
+        <v>693</v>
+      </c>
+      <c r="D330" t="s">
+        <v>689</v>
+      </c>
+      <c r="E330" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>5</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="332" spans="1:2">
+      <c r="C331" t="s">
+        <v>531</v>
+      </c>
+      <c r="D331" t="s">
+        <v>694</v>
+      </c>
+      <c r="E331" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>5</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="333" spans="1:2">
+      <c r="C332" t="s">
+        <v>531</v>
+      </c>
+      <c r="D332" t="s">
+        <v>696</v>
+      </c>
+      <c r="E332" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>5</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
+      <c r="C333" t="s">
+        <v>531</v>
+      </c>
+      <c r="D333" t="s">
+        <v>697</v>
+      </c>
+      <c r="E333" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>5</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="C334" t="s">
+        <v>531</v>
+      </c>
+      <c r="D334" t="s">
+        <v>698</v>
+      </c>
+      <c r="E334" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>5</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="336" spans="1:2">
+      <c r="C335" t="s">
+        <v>531</v>
+      </c>
+      <c r="D335" t="s">
+        <v>699</v>
+      </c>
+      <c r="E335" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>5</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="337" spans="1:2">
+      <c r="C336" t="s">
+        <v>714</v>
+      </c>
+      <c r="D336" t="s">
+        <v>704</v>
+      </c>
+      <c r="E336" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>5</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
+      <c r="C337" t="s">
+        <v>714</v>
+      </c>
+      <c r="D337" t="s">
+        <v>706</v>
+      </c>
+      <c r="E337" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>5</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
+      <c r="C338" t="s">
+        <v>714</v>
+      </c>
+      <c r="D338" t="s">
+        <v>707</v>
+      </c>
+      <c r="E338" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>5</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="340" spans="1:2">
+      <c r="C339" t="s">
+        <v>714</v>
+      </c>
+      <c r="D339" t="s">
+        <v>708</v>
+      </c>
+      <c r="E339" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>5</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
+      <c r="C340" t="s">
+        <v>714</v>
+      </c>
+      <c r="D340" t="s">
+        <v>709</v>
+      </c>
+      <c r="E340" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>5</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="342" spans="1:2">
+      <c r="C341" t="s">
+        <v>725</v>
+      </c>
+      <c r="D341" t="s">
+        <v>715</v>
+      </c>
+      <c r="E341" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>5</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
+      <c r="C342" t="s">
+        <v>725</v>
+      </c>
+      <c r="D342" t="s">
+        <v>716</v>
+      </c>
+      <c r="E342" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>5</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="344" spans="1:2">
+      <c r="C343" t="s">
+        <v>725</v>
+      </c>
+      <c r="D343" t="s">
+        <v>717</v>
+      </c>
+      <c r="E343" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>5</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="345" spans="1:2">
+      <c r="C344" t="s">
+        <v>725</v>
+      </c>
+      <c r="D344" t="s">
+        <v>718</v>
+      </c>
+      <c r="E344" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>5</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="346" spans="1:2">
+      <c r="C345" t="s">
+        <v>725</v>
+      </c>
+      <c r="D345" t="s">
+        <v>719</v>
+      </c>
+      <c r="E345" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>5</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
+      <c r="C346" t="s">
+        <v>734</v>
+      </c>
+      <c r="D346" t="s">
+        <v>726</v>
+      </c>
+      <c r="E346" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>5</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="348" spans="1:2">
+      <c r="C347" t="s">
+        <v>734</v>
+      </c>
+      <c r="D347" t="s">
+        <v>728</v>
+      </c>
+      <c r="E347" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>5</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="349" spans="1:2">
+      <c r="C348" t="s">
+        <v>734</v>
+      </c>
+      <c r="D348" t="s">
+        <v>729</v>
+      </c>
+      <c r="E348" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>5</v>
       </c>
       <c r="B349" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="350" spans="1:2">
+      <c r="C349" t="s">
+        <v>734</v>
+      </c>
+      <c r="D349" t="s">
+        <v>730</v>
+      </c>
+      <c r="E349" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>5</v>
       </c>
       <c r="B350" t="s">
         <v>6</v>
+      </c>
+      <c r="C350" t="s">
+        <v>734</v>
+      </c>
+      <c r="D350" t="s">
+        <v>731</v>
+      </c>
+      <c r="E350" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/faza1_tabela.xlsx
+++ b/faza1_tabela.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="738">
   <si>
     <t>ProgrammingLanguageName</t>
   </si>
@@ -105,33 +105,18 @@
     <t>2_convertIntToString</t>
   </si>
   <si>
-    <t>Funkcija koja se koristi da bi \n celobrojnu vrednost broja konvertovali u string.</t>
-  </si>
-  <si>
     <t>2_convertIntToString1</t>
   </si>
   <si>
-    <t>Funkcija koja se koristi da bi se \n dve celobrojne vrednosti konvertovale \n u stringove i zatim nadovezale jedna na drugu.</t>
-  </si>
-  <si>
     <t>2_convertIntToString2</t>
   </si>
   <si>
-    <t>Funkcija koja se koristi da bi se \n tri celobrojne vrednosti konvertovale \n u stringove i zatim nadovezale.</t>
-  </si>
-  <si>
     <t>2_convertIntToString3</t>
   </si>
   <si>
-    <t>Funkcija koja se koristi da bi se \n celobrojna vrednost konvertovala u string.</t>
-  </si>
-  <si>
     <t>2_convertIntToString4</t>
   </si>
   <si>
-    <t>Funkcija koja od dve celobroje vrednosti \n pravi stringove i zatim ih nadovezuje i ispisuje na izlazu.</t>
-  </si>
-  <si>
     <t>Fajl iz koga je izvucen ovaj par sadrzi rad sa prioritetnim redom.</t>
   </si>
   <si>
@@ -204,9 +189,6 @@
     <t>5_obradaListe</t>
   </si>
   <si>
-    <t>Ispisuje listu stringova.</t>
-  </si>
-  <si>
     <t>5_sabiraDveListe</t>
   </si>
   <si>
@@ -390,9 +372,6 @@
     <t>10_groupByDepartment</t>
   </si>
   <si>
-    <t>Grupisi radnike po odeljenju u kome rade.</t>
-  </si>
-  <si>
     <t>10_groupByName</t>
   </si>
   <si>
@@ -1278,9 +1257,6 @@
     <t>28_convertDecToBool5</t>
   </si>
   <si>
-    <t>Konvertovanje tipva u boolean. Razne konverzije tipova kao sto su celobroja.</t>
-  </si>
-  <si>
     <t>28_convertDecToBool6</t>
   </si>
   <si>
@@ -1467,9 +1443,6 @@
     <t>31_httpJson5</t>
   </si>
   <si>
-    <t>Funckija koja prima json post zahtev i radi obradu.</t>
-  </si>
-  <si>
     <t>31_httpJson6</t>
   </si>
   <si>
@@ -1539,9 +1512,6 @@
     <t>32_getInnerHtml7</t>
   </si>
   <si>
-    <t>Dohvata sve placene postove tj. vraca njihiv html.</t>
-  </si>
-  <si>
     <t>32_getInnerHtml8</t>
   </si>
   <si>
@@ -1626,21 +1596,12 @@
     <t>34_formatDate1</t>
   </si>
   <si>
-    <t>Dovhati danasnji datum i formatiraj datum. \n Rezultat posalji nazad klijentskoj strani.</t>
-  </si>
-  <si>
     <t>34_formatDate2</t>
   </si>
   <si>
-    <t>Dovhati jucerasnji datum i formatiraj datum. \n Rezultat posalji nazad klijentskoj strani.</t>
-  </si>
-  <si>
     <t>34_formatDate3</t>
   </si>
   <si>
-    <t>Dovhati sutrasnji datum i formatiraj datum. \n Rezultat posalji nazad klijentskoj strani.</t>
-  </si>
-  <si>
     <t>34_formatDate4</t>
   </si>
   <si>
@@ -1689,9 +1650,6 @@
     <t>35_arrayRead1</t>
   </si>
   <si>
-    <t>Funckija prima kao parametar niz samo za citanje. \n Nakon formiranja novog niza, vraca nazad rezultat klijentskoj strani.</t>
-  </si>
-  <si>
     <t>35_arrayRead2</t>
   </si>
   <si>
@@ -2046,9 +2004,6 @@
     <t>2_convertIntToString5</t>
   </si>
   <si>
-    <t>Uradi obradu konverzije celobrojnog broja u string.</t>
-  </si>
-  <si>
     <t>2_convertIntToString6</t>
   </si>
   <si>
@@ -2236,6 +2191,54 @@
   </si>
   <si>
     <t>Sifrovanje osetljivih podataka raznim algoritmima za enkripciju.</t>
+  </si>
+  <si>
+    <t>Funkcija koja se koristi da bi \n decimalnu vrednost broja konvertovali u string.</t>
+  </si>
+  <si>
+    <t>Funkcija koja se koristi da bi se \n dve decimalne vrednosti konvertovale \n u stringove i zatim nadovezale jedna na drugu.</t>
+  </si>
+  <si>
+    <t>Funkcija koja se koristi da bi se \n tri decimalne vrednosti konvertovale \n u stringove i zatim nadovezale.</t>
+  </si>
+  <si>
+    <t>Funkcija koja se koristi da bi se \n decimalna vrednost konvertovala u string.</t>
+  </si>
+  <si>
+    <t>Funkcija koja od dve decimalne vrednosti \n pravi stringove i zatim ih nadovezuje i ispisuje na izlazu.</t>
+  </si>
+  <si>
+    <t>Uradi obradu konverzije decimalnog broja u string.</t>
+  </si>
+  <si>
+    <t>Funkcija koja prima json post zahtev i radi obradu.</t>
+  </si>
+  <si>
+    <t>Ispisuje sortiranu listu stringova.</t>
+  </si>
+  <si>
+    <t>Grupisi radnike po broju odeljenju u kome rade.</t>
+  </si>
+  <si>
+    <t>Konvertuj decimalni broj u heksadecimalni iz parametara.</t>
+  </si>
+  <si>
+    <t>Konvertovanje tipova u boolean. Razne konverzije tipova kao sto su celobroja.</t>
+  </si>
+  <si>
+    <t>Dohvata sve placene postove tj. vraca njihov html.</t>
+  </si>
+  <si>
+    <t>Dohvati danasnji datum i formatiraj datum. \n Rezultat posalji nazad klijentskoj strani.</t>
+  </si>
+  <si>
+    <t>Dohvati jucerasnji datum i formatiraj datum. \n Rezultat posalji nazad klijentskoj strani.</t>
+  </si>
+  <si>
+    <t>Dohvati sutrasnji datum i formatiraj datum. \n Rezultat posalji nazad klijentskoj strani.</t>
+  </si>
+  <si>
+    <t>Funkcija prima kao parametar niz samo za citanje. \n Nakon formiranja novog niza, vraca nazad rezultat klijentskoj strani.</t>
   </si>
 </sst>
 </file>
@@ -3067,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D325" workbookViewId="0">
-      <selection activeCell="E351" sqref="E351"/>
+    <sheetView tabSelected="1" topLeftCell="D302" workbookViewId="0">
+      <selection activeCell="E320" sqref="E320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3247,7 +3250,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3261,10 +3264,10 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3278,10 +3281,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3295,10 +3298,10 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3312,10 +3315,10 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3326,13 +3329,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3343,13 +3346,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3360,13 +3363,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3377,13 +3380,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3394,13 +3397,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3411,13 +3414,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3428,13 +3431,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3445,13 +3448,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3462,13 +3465,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3479,13 +3482,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3496,13 +3499,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3513,13 +3516,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3530,13 +3533,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3547,13 +3550,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3564,13 +3567,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3581,13 +3584,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3598,13 +3601,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3615,13 +3618,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3632,13 +3635,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3649,13 +3652,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3666,13 +3669,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3683,13 +3686,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3700,13 +3703,13 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3717,13 +3720,13 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3734,13 +3737,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
         <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3751,13 +3754,13 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3768,13 +3771,13 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3785,13 +3788,13 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3802,13 +3805,13 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3819,13 +3822,13 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
         <v>93</v>
-      </c>
-      <c r="D44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3836,13 +3839,13 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3853,13 +3856,13 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3870,13 +3873,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3887,13 +3890,13 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3904,13 +3907,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
         <v>104</v>
-      </c>
-      <c r="D49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3921,13 +3924,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3938,13 +3941,13 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3955,13 +3958,13 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3972,13 +3975,13 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3989,13 +3992,13 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4006,13 +4009,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
         <v>115</v>
       </c>
-      <c r="D55" t="s">
-        <v>122</v>
-      </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4023,13 +4026,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4040,13 +4043,13 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4057,13 +4060,13 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4074,13 +4077,13 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4091,13 +4094,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" t="s">
         <v>126</v>
       </c>
-      <c r="D60" t="s">
-        <v>133</v>
-      </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4108,13 +4111,13 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4125,13 +4128,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4142,13 +4145,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4159,13 +4162,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4176,13 +4179,13 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
         <v>137</v>
       </c>
-      <c r="D65" t="s">
-        <v>144</v>
-      </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4193,13 +4196,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4210,13 +4213,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4227,13 +4230,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4244,13 +4247,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4261,13 +4264,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" t="s">
         <v>148</v>
       </c>
-      <c r="D70" t="s">
-        <v>155</v>
-      </c>
       <c r="E70" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4278,13 +4281,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4295,13 +4298,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4312,13 +4315,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4329,13 +4332,13 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4346,13 +4349,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
         <v>159</v>
       </c>
-      <c r="D75" t="s">
-        <v>166</v>
-      </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4363,13 +4366,13 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4380,13 +4383,13 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4397,13 +4400,13 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4414,13 +4417,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4431,13 +4434,13 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" t="s">
         <v>170</v>
       </c>
-      <c r="D80" t="s">
-        <v>177</v>
-      </c>
       <c r="E80" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4448,13 +4451,13 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E81" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4465,13 +4468,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4482,13 +4485,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4499,13 +4502,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D84" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E84" t="s">
-        <v>185</v>
+        <v>731</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4516,13 +4519,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" t="s">
         <v>181</v>
-      </c>
-      <c r="D85" t="s">
-        <v>187</v>
-      </c>
-      <c r="E85" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4533,13 +4536,13 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E86" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4550,13 +4553,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E87" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4567,13 +4570,13 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E88" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4584,13 +4587,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E89" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4601,13 +4604,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E90" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4618,13 +4621,13 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E91" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4635,13 +4638,13 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D92" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4652,13 +4655,13 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D93" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4669,13 +4672,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D94" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E94" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4686,13 +4689,13 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" t="s">
         <v>201</v>
       </c>
-      <c r="D95" t="s">
-        <v>208</v>
-      </c>
       <c r="E95" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4703,13 +4706,13 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4720,13 +4723,13 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D97" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4737,13 +4740,13 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E98" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4754,13 +4757,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D99" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E99" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4771,13 +4774,13 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D100" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E100" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4788,13 +4791,13 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D101" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E101" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4805,13 +4808,13 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D102" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4822,13 +4825,13 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E103" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4839,13 +4842,13 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D104" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E104" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4856,13 +4859,13 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" t="s">
         <v>222</v>
       </c>
-      <c r="D105" t="s">
-        <v>229</v>
-      </c>
       <c r="E105" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4873,13 +4876,13 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4890,13 +4893,13 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E107" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4907,13 +4910,13 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E108" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4924,13 +4927,13 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D109" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E109" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4941,13 +4944,13 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D110" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E110" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4958,13 +4961,13 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E111" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4975,13 +4978,13 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D112" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E112" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4992,13 +4995,13 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D113" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E113" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5009,13 +5012,13 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D114" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E114" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5026,13 +5029,13 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D115" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E115" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5043,13 +5046,13 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" t="s">
         <v>245</v>
       </c>
-      <c r="D116" t="s">
-        <v>252</v>
-      </c>
       <c r="E116" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5060,13 +5063,13 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D117" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E117" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5077,13 +5080,13 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D118" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E118" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5094,13 +5097,13 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D119" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E119" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5111,13 +5114,13 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E120" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5128,13 +5131,13 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D121" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E121" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5145,13 +5148,13 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D122" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E122" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5162,13 +5165,13 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D123" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E123" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5179,13 +5182,13 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D124" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E124" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5196,13 +5199,13 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
+        <v>257</v>
+      </c>
+      <c r="D125" t="s">
         <v>264</v>
       </c>
-      <c r="D125" t="s">
-        <v>271</v>
-      </c>
       <c r="E125" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5213,13 +5216,13 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D126" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E126" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5230,13 +5233,13 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D127" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E127" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5247,13 +5250,13 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D128" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E128" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5264,13 +5267,13 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D129" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E129" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5281,13 +5284,13 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D130" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E130" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5298,13 +5301,13 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D131" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E131" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5315,13 +5318,13 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D132" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E132" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5332,13 +5335,13 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D133" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E133" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5349,13 +5352,13 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D134" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E134" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5366,13 +5369,13 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D135" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E135" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5383,13 +5386,13 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D136" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E136" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5400,13 +5403,13 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D137" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E137" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5417,13 +5420,13 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D138" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E138" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5434,13 +5437,13 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D139" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E139" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5451,13 +5454,13 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E140" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5468,13 +5471,13 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D141" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E141" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5485,13 +5488,13 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D142" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E142" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5502,13 +5505,13 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D143" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E143" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5519,13 +5522,13 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D144" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E144" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5536,13 +5539,13 @@
         <v>6</v>
       </c>
       <c r="C145" t="s">
+        <v>298</v>
+      </c>
+      <c r="D145" t="s">
         <v>305</v>
       </c>
-      <c r="D145" t="s">
-        <v>312</v>
-      </c>
       <c r="E145" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5553,13 +5556,13 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D146" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E146" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5570,13 +5573,13 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D147" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E147" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5587,13 +5590,13 @@
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D148" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E148" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5604,13 +5607,13 @@
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D149" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E149" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5621,13 +5624,13 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D150" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E150" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5638,13 +5641,13 @@
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D151" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E151" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5655,13 +5658,13 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D152" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E152" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5672,13 +5675,13 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D153" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E153" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5689,13 +5692,13 @@
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D154" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E154" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5706,13 +5709,13 @@
         <v>6</v>
       </c>
       <c r="C155" t="s">
+        <v>319</v>
+      </c>
+      <c r="D155" t="s">
         <v>326</v>
       </c>
-      <c r="D155" t="s">
-        <v>333</v>
-      </c>
       <c r="E155" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5723,13 +5726,13 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D156" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E156" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5740,13 +5743,13 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D157" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E157" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5757,13 +5760,13 @@
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D158" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E158" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5774,13 +5777,13 @@
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D159" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E159" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5791,13 +5794,13 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D160" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E160" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5808,13 +5811,13 @@
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D161" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E161" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5825,13 +5828,13 @@
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D162" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E162" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5842,13 +5845,13 @@
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D163" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E163" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5859,13 +5862,13 @@
         <v>6</v>
       </c>
       <c r="C164" t="s">
+        <v>338</v>
+      </c>
+      <c r="D164" t="s">
         <v>345</v>
       </c>
-      <c r="D164" t="s">
-        <v>352</v>
-      </c>
       <c r="E164" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5876,13 +5879,13 @@
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D165" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E165" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5893,13 +5896,13 @@
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D166" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E166" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5910,13 +5913,13 @@
         <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D167" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E167" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5927,13 +5930,13 @@
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D168" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E168" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5944,13 +5947,13 @@
         <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D169" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E169" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5961,13 +5964,13 @@
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D170" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E170" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5978,13 +5981,13 @@
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D171" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E171" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5995,13 +5998,13 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D172" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E172" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6012,13 +6015,13 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D173" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E173" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6029,13 +6032,13 @@
         <v>6</v>
       </c>
       <c r="C174" t="s">
+        <v>358</v>
+      </c>
+      <c r="D174" t="s">
         <v>365</v>
       </c>
-      <c r="D174" t="s">
-        <v>372</v>
-      </c>
       <c r="E174" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6046,13 +6049,13 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D175" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E175" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6063,13 +6066,13 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D176" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E176" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6080,13 +6083,13 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D177" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E177" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6097,13 +6100,13 @@
         <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D178" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E178" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6114,13 +6117,13 @@
         <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D179" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E179" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6131,13 +6134,13 @@
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E180" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6148,13 +6151,13 @@
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D181" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E181" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6165,13 +6168,13 @@
         <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D182" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E182" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6182,13 +6185,13 @@
         <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D183" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E183" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6199,13 +6202,13 @@
         <v>6</v>
       </c>
       <c r="C184" t="s">
+        <v>379</v>
+      </c>
+      <c r="D184" t="s">
         <v>386</v>
       </c>
-      <c r="D184" t="s">
-        <v>393</v>
-      </c>
       <c r="E184" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6216,13 +6219,13 @@
         <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D185" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E185" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6233,13 +6236,13 @@
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D186" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E186" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6250,13 +6253,13 @@
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D187" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E187" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6267,13 +6270,13 @@
         <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D188" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E188" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6284,13 +6287,13 @@
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D189" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E189" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6301,13 +6304,13 @@
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D190" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E190" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6318,13 +6321,13 @@
         <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E191" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6335,13 +6338,13 @@
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D192" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E192" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6352,13 +6355,13 @@
         <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D193" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E193" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6369,13 +6372,13 @@
         <v>6</v>
       </c>
       <c r="C194" t="s">
+        <v>400</v>
+      </c>
+      <c r="D194" t="s">
         <v>407</v>
       </c>
-      <c r="D194" t="s">
-        <v>414</v>
-      </c>
       <c r="E194" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6386,13 +6389,13 @@
         <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D195" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E195" t="s">
-        <v>417</v>
+        <v>732</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6403,13 +6406,13 @@
         <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D196" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E196" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6420,13 +6423,13 @@
         <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D197" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E197" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6437,13 +6440,13 @@
         <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D198" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E198" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6454,13 +6457,13 @@
         <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D199" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E199" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6471,13 +6474,13 @@
         <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D200" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E200" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6488,13 +6491,13 @@
         <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D201" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E201" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6505,13 +6508,13 @@
         <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D202" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E202" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6522,13 +6525,13 @@
         <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D203" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E203" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6539,13 +6542,13 @@
         <v>6</v>
       </c>
       <c r="C204" t="s">
+        <v>420</v>
+      </c>
+      <c r="D204" t="s">
+        <v>427</v>
+      </c>
+      <c r="E204" t="s">
         <v>428</v>
-      </c>
-      <c r="D204" t="s">
-        <v>435</v>
-      </c>
-      <c r="E204" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6556,13 +6559,13 @@
         <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D205" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E205" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6573,13 +6576,13 @@
         <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D206" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E206" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6590,13 +6593,13 @@
         <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D207" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E207" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6607,13 +6610,13 @@
         <v>6</v>
       </c>
       <c r="C208" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D208" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E208" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6624,13 +6627,13 @@
         <v>6</v>
       </c>
       <c r="C209" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D209" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E209" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6641,13 +6644,13 @@
         <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D210" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E210" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6658,13 +6661,13 @@
         <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D211" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E211" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6675,13 +6678,13 @@
         <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D212" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E212" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6692,13 +6695,13 @@
         <v>6</v>
       </c>
       <c r="C213" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D213" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E213" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6709,13 +6712,13 @@
         <v>6</v>
       </c>
       <c r="C214" t="s">
+        <v>441</v>
+      </c>
+      <c r="D214" t="s">
+        <v>448</v>
+      </c>
+      <c r="E214" t="s">
         <v>449</v>
-      </c>
-      <c r="D214" t="s">
-        <v>456</v>
-      </c>
-      <c r="E214" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6726,13 +6729,13 @@
         <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D215" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E215" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6743,13 +6746,13 @@
         <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D216" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E216" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6760,13 +6763,13 @@
         <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D217" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E217" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6777,13 +6780,13 @@
         <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D218" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E218" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6794,13 +6797,13 @@
         <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D219" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E219" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6811,13 +6814,13 @@
         <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D220" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E220" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6828,13 +6831,13 @@
         <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D221" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E221" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6845,13 +6848,13 @@
         <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D222" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E222" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6862,13 +6865,13 @@
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D223" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E223" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6879,13 +6882,13 @@
         <v>6</v>
       </c>
       <c r="C224" t="s">
+        <v>462</v>
+      </c>
+      <c r="D224" t="s">
+        <v>469</v>
+      </c>
+      <c r="E224" t="s">
         <v>470</v>
-      </c>
-      <c r="D224" t="s">
-        <v>477</v>
-      </c>
-      <c r="E224" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6896,13 +6899,13 @@
         <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D225" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E225" t="s">
-        <v>480</v>
+        <v>728</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6913,13 +6916,13 @@
         <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D226" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E226" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6930,13 +6933,13 @@
         <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D227" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E227" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6947,13 +6950,13 @@
         <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D228" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E228" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6964,13 +6967,13 @@
         <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D229" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E229" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6981,13 +6984,13 @@
         <v>6</v>
       </c>
       <c r="C230" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D230" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E230" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6998,13 +7001,13 @@
         <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D231" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="E231" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7015,13 +7018,13 @@
         <v>6</v>
       </c>
       <c r="C232" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D232" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="E232" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7032,13 +7035,13 @@
         <v>6</v>
       </c>
       <c r="C233" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D233" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E233" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7049,13 +7052,13 @@
         <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D234" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E234" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7066,13 +7069,13 @@
         <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D235" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E235" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7083,13 +7086,13 @@
         <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D236" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E236" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7100,13 +7103,13 @@
         <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D237" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E237" t="s">
-        <v>504</v>
+        <v>733</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7117,13 +7120,13 @@
         <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D238" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E238" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7134,13 +7137,13 @@
         <v>6</v>
       </c>
       <c r="C239" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D239" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="E239" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7151,13 +7154,13 @@
         <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D240" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E240" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7168,13 +7171,13 @@
         <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D241" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="E241" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7185,13 +7188,13 @@
         <v>6</v>
       </c>
       <c r="C242" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D242" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="E242" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7202,13 +7205,13 @@
         <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D243" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E243" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7219,13 +7222,13 @@
         <v>6</v>
       </c>
       <c r="C244" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D244" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="E244" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7236,13 +7239,13 @@
         <v>6</v>
       </c>
       <c r="C245" t="s">
+        <v>501</v>
+      </c>
+      <c r="D245" t="s">
+        <v>510</v>
+      </c>
+      <c r="E245" t="s">
         <v>511</v>
-      </c>
-      <c r="D245" t="s">
-        <v>520</v>
-      </c>
-      <c r="E245" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7253,13 +7256,13 @@
         <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D246" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E246" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7270,13 +7273,13 @@
         <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D247" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E247" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7287,13 +7290,13 @@
         <v>6</v>
       </c>
       <c r="C248" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D248" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="E248" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7304,13 +7307,13 @@
         <v>6</v>
       </c>
       <c r="C249" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D249" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="E249" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7321,13 +7324,13 @@
         <v>6</v>
       </c>
       <c r="C250" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D250" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E250" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7338,13 +7341,13 @@
         <v>6</v>
       </c>
       <c r="C251" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D251" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E251" t="s">
-        <v>533</v>
+        <v>734</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7355,13 +7358,13 @@
         <v>6</v>
       </c>
       <c r="C252" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D252" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="E252" t="s">
-        <v>535</v>
+        <v>735</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7372,13 +7375,13 @@
         <v>6</v>
       </c>
       <c r="C253" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D253" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E253" t="s">
-        <v>537</v>
+        <v>736</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7389,13 +7392,13 @@
         <v>6</v>
       </c>
       <c r="C254" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D254" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E254" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7406,13 +7409,13 @@
         <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D255" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="E255" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7423,13 +7426,13 @@
         <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D256" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E256" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7440,13 +7443,13 @@
         <v>6</v>
       </c>
       <c r="C257" t="s">
+        <v>521</v>
+      </c>
+      <c r="D257" t="s">
         <v>531</v>
       </c>
-      <c r="D257" t="s">
-        <v>544</v>
-      </c>
       <c r="E257" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7457,13 +7460,13 @@
         <v>6</v>
       </c>
       <c r="C258" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D258" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="E258" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7474,13 +7477,13 @@
         <v>6</v>
       </c>
       <c r="C259" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D259" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E259" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7491,13 +7494,13 @@
         <v>6</v>
       </c>
       <c r="C260" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D260" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E260" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7508,13 +7511,13 @@
         <v>6</v>
       </c>
       <c r="C261" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D261" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E261" t="s">
-        <v>554</v>
+        <v>737</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7525,13 +7528,13 @@
         <v>6</v>
       </c>
       <c r="C262" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D262" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="E262" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7542,13 +7545,13 @@
         <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D263" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="E263" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7559,13 +7562,13 @@
         <v>6</v>
       </c>
       <c r="C264" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D264" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="E264" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7576,13 +7579,13 @@
         <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D265" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="E265" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7593,13 +7596,13 @@
         <v>6</v>
       </c>
       <c r="C266" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D266" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="E266" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7610,13 +7613,13 @@
         <v>6</v>
       </c>
       <c r="C267" t="s">
+        <v>539</v>
+      </c>
+      <c r="D267" t="s">
+        <v>551</v>
+      </c>
+      <c r="E267" t="s">
         <v>552</v>
-      </c>
-      <c r="D267" t="s">
-        <v>565</v>
-      </c>
-      <c r="E267" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7627,13 +7630,13 @@
         <v>6</v>
       </c>
       <c r="C268" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D268" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="E268" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7644,13 +7647,13 @@
         <v>6</v>
       </c>
       <c r="C269" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D269" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E269" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7661,13 +7664,13 @@
         <v>6</v>
       </c>
       <c r="C270" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D270" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="E270" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7678,13 +7681,13 @@
         <v>6</v>
       </c>
       <c r="C271" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D271" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="E271" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7695,13 +7698,13 @@
         <v>6</v>
       </c>
       <c r="C272" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D272" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="E272" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7712,13 +7715,13 @@
         <v>6</v>
       </c>
       <c r="C273" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D273" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E273" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7729,13 +7732,13 @@
         <v>6</v>
       </c>
       <c r="C274" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D274" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="E274" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7746,13 +7749,13 @@
         <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D275" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E275" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7763,13 +7766,13 @@
         <v>6</v>
       </c>
       <c r="C276" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D276" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="E276" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7780,13 +7783,13 @@
         <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D277" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="E277" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7797,13 +7800,13 @@
         <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D278" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="E278" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7814,13 +7817,13 @@
         <v>6</v>
       </c>
       <c r="C279" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D279" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="E279" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7831,13 +7834,13 @@
         <v>6</v>
       </c>
       <c r="C280" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D280" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="E280" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7848,13 +7851,13 @@
         <v>6</v>
       </c>
       <c r="C281" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D281" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="E281" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7865,13 +7868,13 @@
         <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D282" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="E282" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7882,13 +7885,13 @@
         <v>6</v>
       </c>
       <c r="C283" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D283" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="E283" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7899,13 +7902,13 @@
         <v>6</v>
       </c>
       <c r="C284" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D284" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="E284" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7916,13 +7919,13 @@
         <v>6</v>
       </c>
       <c r="C285" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D285" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="E285" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7933,13 +7936,13 @@
         <v>6</v>
       </c>
       <c r="C286" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D286" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="E286" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7950,13 +7953,13 @@
         <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D287" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="E287" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7967,13 +7970,13 @@
         <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D288" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="E288" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7984,13 +7987,13 @@
         <v>6</v>
       </c>
       <c r="C289" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D289" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="E289" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8001,13 +8004,13 @@
         <v>6</v>
       </c>
       <c r="C290" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D290" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E290" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8018,13 +8021,13 @@
         <v>6</v>
       </c>
       <c r="C291" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D291" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="E291" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8035,13 +8038,13 @@
         <v>6</v>
       </c>
       <c r="C292" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D292" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="E292" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8052,13 +8055,13 @@
         <v>6</v>
       </c>
       <c r="C293" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D293" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="E293" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8069,13 +8072,13 @@
         <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D294" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="E294" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8086,13 +8089,13 @@
         <v>6</v>
       </c>
       <c r="C295" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D295" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="E295" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8103,13 +8106,13 @@
         <v>6</v>
       </c>
       <c r="C296" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D296" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="E296" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8120,13 +8123,13 @@
         <v>6</v>
       </c>
       <c r="C297" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D297" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E297" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8137,13 +8140,13 @@
         <v>6</v>
       </c>
       <c r="C298" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D298" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="E298" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8154,13 +8157,13 @@
         <v>6</v>
       </c>
       <c r="C299" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D299" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="E299" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8171,13 +8174,13 @@
         <v>6</v>
       </c>
       <c r="C300" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D300" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="E300" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8188,13 +8191,13 @@
         <v>6</v>
       </c>
       <c r="C301" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D301" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="E301" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8205,13 +8208,13 @@
         <v>6</v>
       </c>
       <c r="C302" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D302" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="E302" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8222,13 +8225,13 @@
         <v>6</v>
       </c>
       <c r="C303" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D303" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="E303" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8239,13 +8242,13 @@
         <v>6</v>
       </c>
       <c r="C304" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D304" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="E304" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8256,13 +8259,13 @@
         <v>6</v>
       </c>
       <c r="C305" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D305" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="E305" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8273,13 +8276,13 @@
         <v>6</v>
       </c>
       <c r="C306" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D306" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="E306" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8290,13 +8293,13 @@
         <v>6</v>
       </c>
       <c r="C307" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D307" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="E307" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8307,13 +8310,13 @@
         <v>6</v>
       </c>
       <c r="C308" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D308" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="E308" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8324,13 +8327,13 @@
         <v>6</v>
       </c>
       <c r="C309" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D309" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="E309" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8341,13 +8344,13 @@
         <v>6</v>
       </c>
       <c r="C310" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D310" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E310" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8358,13 +8361,13 @@
         <v>6</v>
       </c>
       <c r="C311" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D311" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="E311" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8375,13 +8378,13 @@
         <v>6</v>
       </c>
       <c r="C312" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D312" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="E312" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8392,13 +8395,13 @@
         <v>6</v>
       </c>
       <c r="C313" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D313" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="E313" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8409,13 +8412,13 @@
         <v>6</v>
       </c>
       <c r="C314" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D314" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="E314" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8426,13 +8429,13 @@
         <v>6</v>
       </c>
       <c r="C315" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D315" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="E315" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8443,13 +8446,13 @@
         <v>6</v>
       </c>
       <c r="C316" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D316" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E316" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8460,13 +8463,13 @@
         <v>6</v>
       </c>
       <c r="C317" t="s">
+        <v>638</v>
+      </c>
+      <c r="D317" t="s">
+        <v>651</v>
+      </c>
+      <c r="E317" t="s">
         <v>652</v>
-      </c>
-      <c r="D317" t="s">
-        <v>665</v>
-      </c>
-      <c r="E317" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8477,13 +8480,13 @@
         <v>6</v>
       </c>
       <c r="C318" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D318" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="E318" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8494,13 +8497,13 @@
         <v>6</v>
       </c>
       <c r="C319" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D319" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="E319" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8511,13 +8514,13 @@
         <v>6</v>
       </c>
       <c r="C320" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D320" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="E320" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8528,13 +8531,13 @@
         <v>6</v>
       </c>
       <c r="C321" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="D321" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="E321" t="s">
-        <v>673</v>
+        <v>727</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8545,13 +8548,13 @@
         <v>6</v>
       </c>
       <c r="C322" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="D322" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E322" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8562,13 +8565,13 @@
         <v>6</v>
       </c>
       <c r="C323" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="D323" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="E323" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8579,13 +8582,13 @@
         <v>6</v>
       </c>
       <c r="C324" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="D324" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="E324" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8596,13 +8599,13 @@
         <v>6</v>
       </c>
       <c r="C325" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="D325" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="E325" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8613,13 +8616,13 @@
         <v>6</v>
       </c>
       <c r="C326" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="D326" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="E326" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8630,13 +8633,13 @@
         <v>6</v>
       </c>
       <c r="C327" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="D327" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="E327" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8647,13 +8650,13 @@
         <v>6</v>
       </c>
       <c r="C328" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="D328" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="E328" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8664,13 +8667,13 @@
         <v>6</v>
       </c>
       <c r="C329" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="D329" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="E329" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8681,13 +8684,13 @@
         <v>6</v>
       </c>
       <c r="C330" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="D330" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="E330" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8698,13 +8701,13 @@
         <v>6</v>
       </c>
       <c r="C331" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D331" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="E331" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8715,13 +8718,13 @@
         <v>6</v>
       </c>
       <c r="C332" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D332" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="E332" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8732,13 +8735,13 @@
         <v>6</v>
       </c>
       <c r="C333" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D333" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="E333" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8749,13 +8752,13 @@
         <v>6</v>
       </c>
       <c r="C334" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D334" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="E334" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8766,13 +8769,13 @@
         <v>6</v>
       </c>
       <c r="C335" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D335" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="E335" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8783,13 +8786,13 @@
         <v>6</v>
       </c>
       <c r="C336" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="D336" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="E336" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8800,13 +8803,13 @@
         <v>6</v>
       </c>
       <c r="C337" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="D337" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="E337" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8817,13 +8820,13 @@
         <v>6</v>
       </c>
       <c r="C338" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="D338" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="E338" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8834,13 +8837,13 @@
         <v>6</v>
       </c>
       <c r="C339" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="D339" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="E339" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8851,13 +8854,13 @@
         <v>6</v>
       </c>
       <c r="C340" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="D340" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="E340" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8868,13 +8871,13 @@
         <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D341" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="E341" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8885,13 +8888,13 @@
         <v>6</v>
       </c>
       <c r="C342" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D342" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="E342" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8902,13 +8905,13 @@
         <v>6</v>
       </c>
       <c r="C343" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D343" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="E343" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8919,13 +8922,13 @@
         <v>6</v>
       </c>
       <c r="C344" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D344" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="E344" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8936,13 +8939,13 @@
         <v>6</v>
       </c>
       <c r="C345" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D345" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="E345" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8953,13 +8956,13 @@
         <v>6</v>
       </c>
       <c r="C346" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D346" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="E346" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8970,13 +8973,13 @@
         <v>6</v>
       </c>
       <c r="C347" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D347" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="E347" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8987,13 +8990,13 @@
         <v>6</v>
       </c>
       <c r="C348" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D348" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="E348" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9004,13 +9007,13 @@
         <v>6</v>
       </c>
       <c r="C349" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D349" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="E349" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9021,13 +9024,13 @@
         <v>6</v>
       </c>
       <c r="C350" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D350" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="E350" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/faza1_tabela.xlsx
+++ b/faza1_tabela.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokan\Documents\LENA\Masters\OPJ\natural-language-processing-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125EA5D-C54A-4DDF-95FB-0AC451BC7AC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1151">
   <si>
     <t>ProgrammingLanguageName</t>
   </si>
@@ -2239,13 +2234,1252 @@
   </si>
   <si>
     <t>Funkcija prima kao parametar niz samo za citanje. \n Nakon formiranja novog niza, vraca nazad rezultat klijentskoj strani.</t>
+  </si>
+  <si>
+    <t>71_getModelInfo_2</t>
+  </si>
+  <si>
+    <t>Fajl za rukovanje modelom</t>
+  </si>
+  <si>
+    <t>71_updateModel</t>
+  </si>
+  <si>
+    <t>71_summarizeModel</t>
+  </si>
+  <si>
+    <t>71_printModelSummary</t>
+  </si>
+  <si>
+    <t>71_printModelAttribute</t>
+  </si>
+  <si>
+    <t>71_injectCertificate</t>
+  </si>
+  <si>
+    <t>Azurira model sa dve nove vrednosti.</t>
+  </si>
+  <si>
+    <t>Vraca opise modela neuralne mreze.</t>
+  </si>
+  <si>
+    <t>Ispisuje pregled modela.</t>
+  </si>
+  <si>
+    <t>Ubacivanje digitalnog sertifikata u sigurno sklafiste.</t>
+  </si>
+  <si>
+    <t>Vraca informaciju o modelu sa datim indeksom.</t>
+  </si>
+  <si>
+    <t>Ispis pregleda atributa.</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa elementima niza</t>
+  </si>
+  <si>
+    <t>72_deleteUniqueElements</t>
+  </si>
+  <si>
+    <t>72_findAllElements</t>
+  </si>
+  <si>
+    <t>72_gatherFiveUniqueElements</t>
+  </si>
+  <si>
+    <t>72_getSimilarElements</t>
+  </si>
+  <si>
+    <t>72_increasePrice</t>
+  </si>
+  <si>
+    <t>72_updateId</t>
+  </si>
+  <si>
+    <t>72_findsUniqueElements</t>
+  </si>
+  <si>
+    <t>Brisanje jedinstvenih elemenata liste.</t>
+  </si>
+  <si>
+    <t>Vraca listu elemenata koji su jedinstveni.</t>
+  </si>
+  <si>
+    <t>Vraca listu od maksimum 5 jedinstvenih elemenata.</t>
+  </si>
+  <si>
+    <t>Vraca listu slicnih elemenata.</t>
+  </si>
+  <si>
+    <t>Povecaj cenu za odredjeni procenat</t>
+  </si>
+  <si>
+    <t>Azuriraj identifikator</t>
+  </si>
+  <si>
+    <t>Vraca sve elemente liste.</t>
+  </si>
+  <si>
+    <t>Fajl za ekstrakciju podataka iz html fajla.</t>
+  </si>
+  <si>
+    <t>73_getHtmlElementById</t>
+  </si>
+  <si>
+    <t>73_getHtmlInfo</t>
+  </si>
+  <si>
+    <t>73_getHtmlMetadata</t>
+  </si>
+  <si>
+    <t>73_getWebElement</t>
+  </si>
+  <si>
+    <t>73_playMusic</t>
+  </si>
+  <si>
+    <t>73_getHeader1</t>
+  </si>
+  <si>
+    <t>73_getHtmlBody</t>
+  </si>
+  <si>
+    <t>Ekstrakcija body html elementa i ispis rezultata</t>
+  </si>
+  <si>
+    <t>Ekstrakcija h1 html elementa na kog se prvo naidje</t>
+  </si>
+  <si>
+    <t>Vraca html element dat identifikatorom. Proverava se validnost identifikatora</t>
+  </si>
+  <si>
+    <t>Vraca html info element</t>
+  </si>
+  <si>
+    <t>Vraca html metadata ukljucujuci naslov, vreme kreiranja i velicinu fajla</t>
+  </si>
+  <si>
+    <t>Vraca web element</t>
+  </si>
+  <si>
+    <t>Pusta muziku</t>
+  </si>
+  <si>
+    <t>Fajl za obradu toplotnih mapa.</t>
+  </si>
+  <si>
+    <t>74_changeMapName</t>
+  </si>
+  <si>
+    <t>74_formHeatMapFrom3D</t>
+  </si>
+  <si>
+    <t>74_generateHeatMap</t>
+  </si>
+  <si>
+    <t>74_populate</t>
+  </si>
+  <si>
+    <t>74_updateHeatMap</t>
+  </si>
+  <si>
+    <t>74_3dCoordinatesToMap</t>
+  </si>
+  <si>
+    <t>Mapiranje 3d koordinata</t>
+  </si>
+  <si>
+    <t>Azuriranje toplotne mape sa novim unosom koordinate</t>
+  </si>
+  <si>
+    <t>Popunjava niza random podacima</t>
+  </si>
+  <si>
+    <t>Pravljenje toplotne mape</t>
+  </si>
+  <si>
+    <t>Pravljenje toplotne mape od 3D koordinata</t>
+  </si>
+  <si>
+    <t>Promena imena toplotne map</t>
+  </si>
+  <si>
+    <t>Faj; za rad za xml podacima.</t>
+  </si>
+  <si>
+    <t>75_getAllXmlNodes</t>
+  </si>
+  <si>
+    <t>75_getMaximumValue</t>
+  </si>
+  <si>
+    <t>75_getMinimumValue</t>
+  </si>
+  <si>
+    <t>75_getNodeDescription</t>
+  </si>
+  <si>
+    <t>75_getParentNode</t>
+  </si>
+  <si>
+    <t>75_getAllParentNodes</t>
+  </si>
+  <si>
+    <t>Uzeti sve roditelje xml cvora sa identifikatorom nodeId</t>
+  </si>
+  <si>
+    <t>Azurirati ime roditelja cvora sa nodeId</t>
+  </si>
+  <si>
+    <t>75_updateXmlParentNode</t>
+  </si>
+  <si>
+    <t>Uzeti roditeljski cvor od cvora sa nodeId</t>
+  </si>
+  <si>
+    <t>Prikazi xml cvor</t>
+  </si>
+  <si>
+    <t>Dobiti minimum vrednost iz niza</t>
+  </si>
+  <si>
+    <t>Dobiti maksimalnu vrednost iz niza</t>
+  </si>
+  <si>
+    <t>Uzeti sve xml cvorove</t>
+  </si>
+  <si>
+    <t>Fajl za ekstrakciju zip fajla</t>
+  </si>
+  <si>
+    <t>76_extractData</t>
+  </si>
+  <si>
+    <t>76_extractZipFile</t>
+  </si>
+  <si>
+    <t>76_extractZipFileRecursively</t>
+  </si>
+  <si>
+    <t>76_getFilesFromZip</t>
+  </si>
+  <si>
+    <t>76_openZipFile</t>
+  </si>
+  <si>
+    <t>76_checkIfZip</t>
+  </si>
+  <si>
+    <t>Proveriti da li je fajl zip formata</t>
+  </si>
+  <si>
+    <t>Otvoriti zip arhivu</t>
+  </si>
+  <si>
+    <t>Dobijanje fajlova iz zip arhive</t>
+  </si>
+  <si>
+    <t>Ekstrakcija zip fajla rekurzivno</t>
+  </si>
+  <si>
+    <t>Ekstrakcija zip fajla</t>
+  </si>
+  <si>
+    <t>Ekstrakcija podataka iz cvora</t>
+  </si>
+  <si>
+    <t>Fajl za rad za vidzetima.</t>
+  </si>
+  <si>
+    <t>77_getWidgetName</t>
+  </si>
+  <si>
+    <t>77_removeCertificate</t>
+  </si>
+  <si>
+    <t>77_underlineLabelName</t>
+  </si>
+  <si>
+    <t>77_underlieWidget</t>
+  </si>
+  <si>
+    <t>77_underlineWidgetTitle</t>
+  </si>
+  <si>
+    <t>77_updateLabelName</t>
+  </si>
+  <si>
+    <t>Podvuci tekst u nazivu vidzeta</t>
+  </si>
+  <si>
+    <t>Podvuci ime oznake</t>
+  </si>
+  <si>
+    <t>Vraca ime vidzeta</t>
+  </si>
+  <si>
+    <t>Izbaci sertifikat iz list sertifikata</t>
+  </si>
+  <si>
+    <t>Azuriraj ime oznake</t>
+  </si>
+  <si>
+    <t>Podvuci naslov vidzeta</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa velikim fajlovima</t>
+  </si>
+  <si>
+    <t>78_extractLargeFile</t>
+  </si>
+  <si>
+    <t>78_findOutlet</t>
+  </si>
+  <si>
+    <t>78_getContentsLargeFile</t>
+  </si>
+  <si>
+    <t>78_getDataFromFile</t>
+  </si>
+  <si>
+    <t>78_getLargeFileSize</t>
+  </si>
+  <si>
+    <t>78_printLargeFileName</t>
+  </si>
+  <si>
+    <t>Ispisi ime velikog fajla</t>
+  </si>
+  <si>
+    <t>Ispisi velicinu fajla</t>
+  </si>
+  <si>
+    <t>Vraca podatke iz fajla</t>
+  </si>
+  <si>
+    <t>Vraca podatke iz velikog fajla</t>
+  </si>
+  <si>
+    <t>Ekstrakcija podataka iz velikog fajla</t>
+  </si>
+  <si>
+    <t>Pronaci prodavnicu</t>
+  </si>
+  <si>
+    <t>Fajl za kopiranje.</t>
+  </si>
+  <si>
+    <t>79_copyAndRenameNewFile</t>
+  </si>
+  <si>
+    <t>79_copyFile</t>
+  </si>
+  <si>
+    <t>79_copyFileToPath</t>
+  </si>
+  <si>
+    <t>79_copyFolderToPath</t>
+  </si>
+  <si>
+    <t>79_duplicateFileToPath</t>
+  </si>
+  <si>
+    <t>79_getPathFromFile</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla u odredjenu putanju i promena imena fajla</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla sa sourcePath u putanju definisanu destinationPath parametrom</t>
+  </si>
+  <si>
+    <t>Kopiranje foldera sa sourcePath u putanju definisanu destinationPath parametrom</t>
+  </si>
+  <si>
+    <t>Napravi kopiju fajla u istoj putanji</t>
+  </si>
+  <si>
+    <t>Vraca putanju fajla</t>
+  </si>
+  <si>
+    <t>79_makeNewFile</t>
+  </si>
+  <si>
+    <t>Napravi novi fajl</t>
+  </si>
+  <si>
+    <t>Fajl za obradu http status kodova</t>
+  </si>
+  <si>
+    <t>80_updateHttpCodeDescription</t>
+  </si>
+  <si>
+    <t>80_mapErrorCodeToCustomError</t>
+  </si>
+  <si>
+    <t>80_makeHttpCodeDescription</t>
+  </si>
+  <si>
+    <t>80_logQuiniuHtmlError</t>
+  </si>
+  <si>
+    <t>80_getHttpCodeDescription</t>
+  </si>
+  <si>
+    <t>80_getElementFromListByOccurence</t>
+  </si>
+  <si>
+    <t>80_extractHttpCode</t>
+  </si>
+  <si>
+    <t>Azuriranje deskripcije http koda</t>
+  </si>
+  <si>
+    <t>Mapiranje greske u greske projekta</t>
+  </si>
+  <si>
+    <t>Sastavi opis html koda</t>
+  </si>
+  <si>
+    <t>Ispisuje html kod</t>
+  </si>
+  <si>
+    <t>Vraca opis http koda</t>
+  </si>
+  <si>
+    <t>Ekstrakcija http koda iz dobijenog odgovora</t>
+  </si>
+  <si>
+    <t>Fajl za rad za elementima liste</t>
+  </si>
+  <si>
+    <t>81_printElements</t>
+  </si>
+  <si>
+    <t>81_getXElementsFromList</t>
+  </si>
+  <si>
+    <t>81_getPositiveElementsFromList</t>
+  </si>
+  <si>
+    <t>81_getNegativeElementsFromList</t>
+  </si>
+  <si>
+    <t>81_getElementsFromListByOccurence</t>
+  </si>
+  <si>
+    <t>Cuvanje korisnika u tabeli</t>
+  </si>
+  <si>
+    <t>81_updateQuery</t>
+  </si>
+  <si>
+    <t>81_getSameElementsFromList</t>
+  </si>
+  <si>
+    <t>Ispis elemenata niza</t>
+  </si>
+  <si>
+    <t>Ekstrakcija nasumicnog elementa iz liste. Koristi se rand() funkcija sa min i max parametrima. Broj elemenata koji se ekstraktuju je odredjen parametrom x</t>
+  </si>
+  <si>
+    <t>Ekstrakcija duplikata u datoj listi u vidu nizu</t>
+  </si>
+  <si>
+    <t>Ekstrakcija nasumicnog pozitivnog elementa iz liste. Koristi se rand() funkcija sa min i max parametrima. Broj elemenata koji se ekstraktuju je odredjen parametrom x</t>
+  </si>
+  <si>
+    <t>Ekstrakcija nasumicnog negativnog elementa iz liste. Koristi se rand() funkcija sa min i max parametrima. Broj elemenata koji se ekstraktuju je odredjen parametrom x</t>
+  </si>
+  <si>
+    <t>Ekstrakcija prvog elementa iz liste koji se pojavljuje x puta</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa datumima</t>
+  </si>
+  <si>
+    <t>82_convertDateToYYY-MM-DDFormat</t>
+  </si>
+  <si>
+    <t>Konverzija datum stringa u format ddmmggg i njegov ispis</t>
+  </si>
+  <si>
+    <t>82_convertDateToYYYYMMDDFormat</t>
+  </si>
+  <si>
+    <t>82_getElapsedTimeInYYYYMMDDFormat</t>
+  </si>
+  <si>
+    <t>Dobijanje proteklog vremena od datuma u YYYYMMDD formatu</t>
+  </si>
+  <si>
+    <t>82_convertDateToDDMMYYYFormat</t>
+  </si>
+  <si>
+    <t>Konverzija datum stringa u format gggg-mm-dd i njegov ispis</t>
+  </si>
+  <si>
+    <t>82_convertDateFromYYYYMMDDtoDD-MM-YYYY</t>
+  </si>
+  <si>
+    <t>Konverzija datuma iz formata ggggmmdd u format dd-mm-gggg i njegov ispis</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa vremenom</t>
+  </si>
+  <si>
+    <t>83_convertTimeFromUtcToEpoch</t>
+  </si>
+  <si>
+    <t>Konverzija vremena iz utc vremenskog formata u epoh vremenski format</t>
+  </si>
+  <si>
+    <t>83_updateEntry</t>
+  </si>
+  <si>
+    <t>Azuriranje tabele Event sa novim vremenom. Vrsi se i konverzija vremena iz utc vremenskog formata u epoh vremenski format</t>
+  </si>
+  <si>
+    <t>83_printUtcTime</t>
+  </si>
+  <si>
+    <t>Ispis trenutnog utc vremena</t>
+  </si>
+  <si>
+    <t>83_convertUtcTimetoFormattedString</t>
+  </si>
+  <si>
+    <t>Konverzija utc vremena u formatirani string</t>
+  </si>
+  <si>
+    <t>Ispis utc vremena u vremensku zonu za Srbiju</t>
+  </si>
+  <si>
+    <t>83_convertTimeFromUtcToEpochSerbianTimezone</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa listama</t>
+  </si>
+  <si>
+    <t>84_listPermutation</t>
+  </si>
+  <si>
+    <t>84_itemsPermutation</t>
+  </si>
+  <si>
+    <t>84_rearrangeList</t>
+  </si>
+  <si>
+    <t>84_delete_img</t>
+  </si>
+  <si>
+    <t>84_permutationFromThePool</t>
+  </si>
+  <si>
+    <t>84_nRandomPermutation</t>
+  </si>
+  <si>
+    <t>Permutacija liste</t>
+  </si>
+  <si>
+    <t>Sve permutacije liste u vidu jednog niza</t>
+  </si>
+  <si>
+    <t>Brisanje slike iz tabele post_food</t>
+  </si>
+  <si>
+    <t>Nasumicna permutacija liste i njen ispis</t>
+  </si>
+  <si>
+    <t>Permutacija elemenata iz liste (pool). Funkcija vraca iterator. Moze se specificirati r - velicina permutacije</t>
+  </si>
+  <si>
+    <t>Vraca N nasumicnih permutacija niza</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa koordinatama</t>
+  </si>
+  <si>
+    <t>85_extractLatitude</t>
+  </si>
+  <si>
+    <t>85_extractLongitude</t>
+  </si>
+  <si>
+    <t>85_plotCoordinates</t>
+  </si>
+  <si>
+    <t>85_getCoordinates</t>
+  </si>
+  <si>
+    <t>85_setTitleAttribute</t>
+  </si>
+  <si>
+    <t>85_extractLatitudeAndLongitudeFromKmlFile</t>
+  </si>
+  <si>
+    <t>85_extractLatitudeAndLongitude</t>
+  </si>
+  <si>
+    <t>Ekstrakcija latitude iz adrese</t>
+  </si>
+  <si>
+    <t>Ekstrakcija longitude iz adrese</t>
+  </si>
+  <si>
+    <t>Plotiranje koordinate sa datom latitudom i longitudom</t>
+  </si>
+  <si>
+    <t>Postaviti naslov</t>
+  </si>
+  <si>
+    <t>Ekstrakcija koordinata iz adrese</t>
+  </si>
+  <si>
+    <t>Ekstrakcija geografske sirine i duzine iz kml fajla</t>
+  </si>
+  <si>
+    <t>Ekstrakcija latitude i longitude iz adrese</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa formom</t>
+  </si>
+  <si>
+    <t>86_checkAndPrintIfACheckboxIsChecked</t>
+  </si>
+  <si>
+    <t>86_toggle</t>
+  </si>
+  <si>
+    <t>86_selectGender</t>
+  </si>
+  <si>
+    <t>86_selectAnswer</t>
+  </si>
+  <si>
+    <t>86_getDefaultItem</t>
+  </si>
+  <si>
+    <t>86_construct</t>
+  </si>
+  <si>
+    <t>86_checkIfACheckboxIsChecked</t>
+  </si>
+  <si>
+    <t>Ako je odabrano polje za potvrdu source odaberi i sva polja od x</t>
+  </si>
+  <si>
+    <t>Odabrati jedno od polja za selekciju pola. Opcije su 0-zenski, 1-muski, 2-neodredjeno</t>
+  </si>
+  <si>
+    <t>Odabrati jedno od polja za selekciju odgovora. Opcije su 0-da, 1-mozda, 2-ne</t>
+  </si>
+  <si>
+    <t>Provera odabrane vrednosti polja za selektovanje</t>
+  </si>
+  <si>
+    <t>Konstruktor parsera</t>
+  </si>
+  <si>
+    <t>Provera da li je polje za selekciju izabrano</t>
+  </si>
+  <si>
+    <t>Provera da li je polje za selekciju sa checkboxName odabran</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa slikama</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage1</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage2</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage3</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage4</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage5</t>
+  </si>
+  <si>
+    <t>87_convertIntegerToArrayToImage6</t>
+  </si>
+  <si>
+    <t>Konverzija niza decimalnog broja u sliku</t>
+  </si>
+  <si>
+    <t>Konverzija niza brojeva u sliku</t>
+  </si>
+  <si>
+    <t>Konverzija dva niza decimalnog broja u sliku</t>
+  </si>
+  <si>
+    <t>Spajanje tri niza u sliku i njihova konverzija u sliku</t>
+  </si>
+  <si>
+    <t>Vraca sliku napravljenu od niza decimalnih brojeva</t>
+  </si>
+  <si>
+    <t>Vraca sliku</t>
+  </si>
+  <si>
+    <t>Konverzija niza</t>
+  </si>
+  <si>
+    <t>Rad sa memorijom</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization1</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization2</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization3</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization4</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization5</t>
+  </si>
+  <si>
+    <t>88_permanentMemoization6</t>
+  </si>
+  <si>
+    <t>Stalna memoizacija na disku</t>
+  </si>
+  <si>
+    <t>Optimizacija memoizacijom na disku</t>
+  </si>
+  <si>
+    <t>Privremena memoizacija na disku</t>
+  </si>
+  <si>
+    <t>Tehnika memoizacije kao vid optimizacije</t>
+  </si>
+  <si>
+    <t>Cuvanje podataka na disku</t>
+  </si>
+  <si>
+    <t>Memoizacija</t>
+  </si>
+  <si>
+    <t>Memoizacija na disku</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa komandnom linijom</t>
+  </si>
+  <si>
+    <t>89_get_fieldset_select</t>
+  </si>
+  <si>
+    <t>89_parsingCommandLineArgumentsFromGet</t>
+  </si>
+  <si>
+    <t>89_parsingCommandLineArguments</t>
+  </si>
+  <si>
+    <t>89_parseArgs</t>
+  </si>
+  <si>
+    <t>89_initCLIArguments</t>
+  </si>
+  <si>
+    <t>89_initArguments</t>
+  </si>
+  <si>
+    <t>Vraca jedinstvenu vrednost iz reda rabele gde je select klauzula tacna</t>
+  </si>
+  <si>
+    <t>Parsiranje argumenata sa komandne linije od GET metode</t>
+  </si>
+  <si>
+    <t>Parsiranje argumenata sa komandne linije u formatu kljuc vrednost parova</t>
+  </si>
+  <si>
+    <t>Parsiranje argumenata sa komandne linije u bilo koja od tri slucajeva: sa "--", sa "-" ili bez icega</t>
+  </si>
+  <si>
+    <t>Postavljanje argumenta komandne linije</t>
+  </si>
+  <si>
+    <t>Dohvatanje argumenata sa komandne linije i priprema za njihovu upotrebu</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa kompresijom fajlova</t>
+  </si>
+  <si>
+    <t>90_compressGxFile</t>
+  </si>
+  <si>
+    <t>90_writeCompressedFile</t>
+  </si>
+  <si>
+    <t>90_unpack</t>
+  </si>
+  <si>
+    <t>90_readGzFileLineByLine</t>
+  </si>
+  <si>
+    <t>90_readGzFile</t>
+  </si>
+  <si>
+    <t>90_gz_get_contents</t>
+  </si>
+  <si>
+    <t>Kompresija fajla u .gz format</t>
+  </si>
+  <si>
+    <t>Pisanje u .gz fajl sa imenom filename</t>
+  </si>
+  <si>
+    <t>Otvaranje fajla koristeci .gz kompresor</t>
+  </si>
+  <si>
+    <t>Citanje .gz fajla liniju po liniju</t>
+  </si>
+  <si>
+    <t>Citanje .gz fajla</t>
+  </si>
+  <si>
+    <t>Citanje .gz fajla sa datom putanjom</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa binarnim podacima</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST1</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST2</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST3</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST4</t>
+  </si>
+  <si>
+    <t>91_sendBinaryDataPOST5</t>
+  </si>
+  <si>
+    <t>Slanje binarnih podataka POST metodom</t>
+  </si>
+  <si>
+    <t>Slanje binarnih podataka serijskom konekcijom</t>
+  </si>
+  <si>
+    <t>Razmena binarnih podataka preko serijske konekcije</t>
+  </si>
+  <si>
+    <t>Primanje binarnih podataka preko serijske konekcije</t>
+  </si>
+  <si>
+    <t>Slanje podataka o dogadjaju putem serijske konekcije</t>
+  </si>
+  <si>
+    <t>Slanje binarnih podataka preko adaptera</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa tekstualnim podacima</t>
+  </si>
+  <si>
+    <t>92_getDataFromTextFile</t>
+  </si>
+  <si>
+    <t>Ekstrakcija podataka liniju po liniju iz tekstualnog fajla</t>
+  </si>
+  <si>
+    <t>92_writeDataToTxtFile</t>
+  </si>
+  <si>
+    <t>Pisanje podataka u tekstualni fajl</t>
+  </si>
+  <si>
+    <t>92_testFileRead</t>
+  </si>
+  <si>
+    <t>92_load</t>
+  </si>
+  <si>
+    <t>92_getFileContents</t>
+  </si>
+  <si>
+    <t>92_getDataFromTextFileStructure</t>
+  </si>
+  <si>
+    <t>Testiranje citanja podataka iz tekstualnog fajla</t>
+  </si>
+  <si>
+    <t>Dovlaci tekstualni fajl u memoriju</t>
+  </si>
+  <si>
+    <t>Ekstrakcija podataka iz fajla</t>
+  </si>
+  <si>
+    <t>Ekstracija informacije iz tekstualnog fajla baziranog na sledecoj strukturi: Datum, Naslov, Tekst:vrednost, Tekst:vrednost, Tekst:vrednost</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa stringovima</t>
+  </si>
+  <si>
+    <t>93_findAllNumbersInString</t>
+  </si>
+  <si>
+    <t>93_findSubstringPosition</t>
+  </si>
+  <si>
+    <t>93_findSubstringPositionIntext</t>
+  </si>
+  <si>
+    <t>93_findStringInText</t>
+  </si>
+  <si>
+    <t>93_findNumOccurrencesString</t>
+  </si>
+  <si>
+    <t>Pronalazenje svih brojeva u stringu</t>
+  </si>
+  <si>
+    <t>Pronalazenje pozicije pod stringa u datom stringu</t>
+  </si>
+  <si>
+    <t>Pronalazenje pod stringa u datom stringu i ispis ako postoji</t>
+  </si>
+  <si>
+    <t>93_findSubstring</t>
+  </si>
+  <si>
+    <t>Pronalazenje stringa u tekstu</t>
+  </si>
+  <si>
+    <t>Pronalazenje pozicije stringa u tekstu</t>
+  </si>
+  <si>
+    <t>Pronalazenje koliko puta se substring pojavljuje u stringu</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa elementima html fajla</t>
+  </si>
+  <si>
+    <t>94_findTrElementsFromHtml</t>
+  </si>
+  <si>
+    <t>94_findTdElementsFromHtml</t>
+  </si>
+  <si>
+    <t>94_readingTdElementsFromHTml</t>
+  </si>
+  <si>
+    <t>94_readingTableElementsFromHtml</t>
+  </si>
+  <si>
+    <t>94_ReadingHtmlFile</t>
+  </si>
+  <si>
+    <t>94_readingElementsFromJtmlAsArray</t>
+  </si>
+  <si>
+    <t>94_getHtmlBody</t>
+  </si>
+  <si>
+    <t>Pronalazenje tr elemenata u html fajlu</t>
+  </si>
+  <si>
+    <t>Pronalazenje td elemenata u html fajlu</t>
+  </si>
+  <si>
+    <t>Parsiranje td elementa iz html fajla</t>
+  </si>
+  <si>
+    <t>Citanja elemenata tabele iz html fajla</t>
+  </si>
+  <si>
+    <t>Citanje html fajla</t>
+  </si>
+  <si>
+    <t>Vraca html elemente u vidu niza</t>
+  </si>
+  <si>
+    <t>Vraca body sekciju html-a</t>
+  </si>
+  <si>
+    <t>Fajl za racunanje srednjih vrednosti</t>
+  </si>
+  <si>
+    <t>95_calculate</t>
+  </si>
+  <si>
+    <t>95_findSumofColumn</t>
+  </si>
+  <si>
+    <t>95_findAverageMeanOfArray</t>
+  </si>
+  <si>
+    <t>95_findAverageMeanFromColumn</t>
+  </si>
+  <si>
+    <t>95_deductingAverageMeanFromColumn</t>
+  </si>
+  <si>
+    <t>95_deductingAverageMean</t>
+  </si>
+  <si>
+    <t>Srednja vrednost u nizu</t>
+  </si>
+  <si>
+    <t>Pronalazenje zbira vrednosti u koloni</t>
+  </si>
+  <si>
+    <t>Pronalazenje srednje vrednosti niza</t>
+  </si>
+  <si>
+    <t>Pronalazenje srednje vrednosti od kolone</t>
+  </si>
+  <si>
+    <t>Oduzimanje srednje vrednosti od kolone iz sql baze</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa fajlovima</t>
+  </si>
+  <si>
+    <t>96_fileConcatenation</t>
+  </si>
+  <si>
+    <t>96_fileConcatenationRemoveHeader</t>
+  </si>
+  <si>
+    <t>96_mergingFilesRandomOrder</t>
+  </si>
+  <si>
+    <t>96_pdfFileConcatenation</t>
+  </si>
+  <si>
+    <t>96_removeHeaderAndFooterFileMerging</t>
+  </si>
+  <si>
+    <t>96_stringConcatenation</t>
+  </si>
+  <si>
+    <t>Nadovezivanje stringova iz liste stringova</t>
+  </si>
+  <si>
+    <t>Nadovezivanje svih fajlova iz liste fajlova a pritom se brisu zaglavlja i footer</t>
+  </si>
+  <si>
+    <t>Spajanje pdf fajlova iz liste fajlova</t>
+  </si>
+  <si>
+    <t>Spajanje fajlova u nasumicnom redu</t>
+  </si>
+  <si>
+    <t>Nadovezivanje svih fajlova iz liste fajlova pri tom se zaglavlja svakog fajla brisu</t>
+  </si>
+  <si>
+    <t>Nadovezivanje svih fajlova iz liste fajlova</t>
+  </si>
+  <si>
+    <t>Fajl sa funckijama za parisranje url-a</t>
+  </si>
+  <si>
+    <t>97_insertQueryIntoUrl</t>
+  </si>
+  <si>
+    <t>97_getPreviousUrl</t>
+  </si>
+  <si>
+    <t>97_updateUrl</t>
+  </si>
+  <si>
+    <t>97_parseSelectQueryFromUrl</t>
+  </si>
+  <si>
+    <t>97_parseQueryFromUrlRegex</t>
+  </si>
+  <si>
+    <t>97_numberOfMethods</t>
+  </si>
+  <si>
+    <t>Ubacivanje upita u url</t>
+  </si>
+  <si>
+    <t>Vraca prethodni url</t>
+  </si>
+  <si>
+    <t>Promena url-a</t>
+  </si>
+  <si>
+    <t>Parsiranje select upita iz url-a</t>
+  </si>
+  <si>
+    <t>97_parseQueryFromUrl</t>
+  </si>
+  <si>
+    <t>Parsiranje upita iz url-a po regeksu i ispis rezultata</t>
+  </si>
+  <si>
+    <t>Parsiranje upita iz url-a</t>
+  </si>
+  <si>
+    <t>Vraca broj metoda u projektu</t>
+  </si>
+  <si>
+    <t>Fajl za rad na pretrazivanju</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking1</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking2</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking3</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking4</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking5</t>
+  </si>
+  <si>
+    <t>98_fuzzyMatchRanking6</t>
+  </si>
+  <si>
+    <t>Fuzzy match ranking funkcija</t>
+  </si>
+  <si>
+    <t>Fuzzy match pretrazivanje slicnih recenica</t>
+  </si>
+  <si>
+    <t>Fuzzy match ranking funkcija 3</t>
+  </si>
+  <si>
+    <t>Fuzzy match ranking funkcija 4</t>
+  </si>
+  <si>
+    <t>Fuzzy match ranking funkcija 5</t>
+  </si>
+  <si>
+    <t>Fuzzy match ranking funkcija 6</t>
+  </si>
+  <si>
+    <t>Fuzzy match pretrazivanje</t>
+  </si>
+  <si>
+    <t>Fajl sa funkcijama koje vracaju html fajl</t>
+  </si>
+  <si>
+    <t>99_convertExcelToHtml</t>
+  </si>
+  <si>
+    <t>99_convertPdfToHtml</t>
+  </si>
+  <si>
+    <t>99_convertWordToHtml</t>
+  </si>
+  <si>
+    <t>99_findContext</t>
+  </si>
+  <si>
+    <t>99_getReport</t>
+  </si>
+  <si>
+    <t>99_returnHtmlFile</t>
+  </si>
+  <si>
+    <t>99_sendLetter</t>
+  </si>
+  <si>
+    <t>Konverzija excel fajla tako da je izlaz funkcije html fajl</t>
+  </si>
+  <si>
+    <t>Prebacivanje pdf fajl u html fajl</t>
+  </si>
+  <si>
+    <t>Konverzija word fajla tako da je izlaz funkcije html fajl</t>
+  </si>
+  <si>
+    <t>Pronalazenje konteksta</t>
+  </si>
+  <si>
+    <t>Vraca izvestaj u vidu html fajla</t>
+  </si>
+  <si>
+    <t>Vraca novi html file</t>
+  </si>
+  <si>
+    <t>Slanje poste u obliku html-a. Funkcija vraca html</t>
+  </si>
+  <si>
+    <t>Fajl za rad sa csv fajlovima</t>
+  </si>
+  <si>
+    <t>100_numberOfTestedFunctions</t>
+  </si>
+  <si>
+    <t>100_readingCsvFileSplFileObject</t>
+  </si>
+  <si>
+    <t>100_readingCsvFileIntoArray</t>
+  </si>
+  <si>
+    <t>100_readingCsvFileArrayMap</t>
+  </si>
+  <si>
+    <t>100_readingCsvFile</t>
+  </si>
+  <si>
+    <t>100_parsingCsvFileToCustomClass</t>
+  </si>
+  <si>
+    <t>Vraca broj metoda u funkciji</t>
+  </si>
+  <si>
+    <t>Kreiranje csv fajla iz niza</t>
+  </si>
+  <si>
+    <t>Citanje csv fajla koristeci SplFileObject klasu</t>
+  </si>
+  <si>
+    <t>100_writingCsvFileFromArray</t>
+  </si>
+  <si>
+    <t>Citanje csv fajla u niz</t>
+  </si>
+  <si>
+    <t>Citanje csv fajla u mapu niza</t>
+  </si>
+  <si>
+    <t>Citanje csv fajla i ispis</t>
+  </si>
+  <si>
+    <t>Parsiranje csv fajla u posebnu klasu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2826,7 +4060,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2858,9 +4092,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2892,6 +4144,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3067,23 +4337,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D302" workbookViewId="0">
-      <selection activeCell="E320" sqref="E320"/>
+    <sheetView tabSelected="1" topLeftCell="C509" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E543" sqref="E543"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="2" max="2" width="106" customWidth="1"/>
     <col min="3" max="3" width="73.5546875" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="144.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +4370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3117,7 +4387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3134,7 +4404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3151,7 +4421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3168,7 +4438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3185,7 +4455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3202,7 +4472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3219,7 +4489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +4506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3253,7 +4523,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3270,7 +4540,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3287,7 +4557,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3304,7 +4574,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3321,7 +4591,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +4608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3355,7 +4625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3372,7 +4642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3389,7 +4659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3406,7 +4676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3423,7 +4693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3440,7 +4710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3457,7 +4727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3474,7 +4744,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -3491,7 +4761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3508,7 +4778,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3525,7 +4795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3542,7 +4812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3559,7 +4829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3576,7 +4846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3593,7 +4863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -3610,7 +4880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3627,7 +4897,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3644,7 +4914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3661,7 +4931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3678,7 +4948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3695,7 +4965,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3712,7 +4982,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +4999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3746,7 +5016,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -3763,7 +5033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +5050,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3797,7 +5067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3814,7 +5084,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -3831,7 +5101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -3848,7 +5118,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -3865,7 +5135,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -3882,7 +5152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3899,7 +5169,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -3916,7 +5186,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -3933,7 +5203,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -3950,7 +5220,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3967,7 +5237,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -3984,7 +5254,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -4001,7 +5271,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -4018,7 +5288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -4035,7 +5305,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -4052,7 +5322,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -4069,7 +5339,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4086,7 +5356,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -4103,7 +5373,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -4120,7 +5390,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -4137,7 +5407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -4154,7 +5424,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -4171,7 +5441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -4188,7 +5458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -4205,7 +5475,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -4222,7 +5492,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -4239,7 +5509,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +5526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -4273,7 +5543,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -4290,7 +5560,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -4307,7 +5577,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -4324,7 +5594,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -4341,7 +5611,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -4358,7 +5628,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -4375,7 +5645,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -4392,7 +5662,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -4409,7 +5679,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -4426,7 +5696,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -4443,7 +5713,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -4460,7 +5730,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -4477,7 +5747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -4494,7 +5764,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -4511,7 +5781,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -4528,7 +5798,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -4545,7 +5815,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -4562,7 +5832,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -4579,7 +5849,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -4596,7 +5866,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -4613,7 +5883,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -4630,7 +5900,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -4647,7 +5917,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -4664,7 +5934,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -4681,7 +5951,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -4698,7 +5968,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -4715,7 +5985,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -4732,7 +6002,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -4749,7 +6019,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -4766,7 +6036,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -4783,7 +6053,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -4800,7 +6070,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -4817,7 +6087,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4834,7 +6104,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -4851,7 +6121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -4868,7 +6138,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -4885,7 +6155,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -4902,7 +6172,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -4919,7 +6189,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -4936,7 +6206,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4953,7 +6223,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -4970,7 +6240,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -4987,7 +6257,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -5004,7 +6274,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -5021,7 +6291,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -5038,7 +6308,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -5055,7 +6325,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -5072,7 +6342,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -5089,7 +6359,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -5106,7 +6376,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -5123,7 +6393,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -5140,7 +6410,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -5157,7 +6427,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -5174,7 +6444,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -5191,7 +6461,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -5208,7 +6478,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -5225,7 +6495,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -5242,7 +6512,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -5259,7 +6529,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -5276,7 +6546,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -5293,7 +6563,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -5310,7 +6580,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -5327,7 +6597,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -5344,7 +6614,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -5361,7 +6631,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -5378,7 +6648,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -5395,7 +6665,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -5412,7 +6682,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -5429,7 +6699,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -5446,7 +6716,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -5463,7 +6733,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -5480,7 +6750,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -5497,7 +6767,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -5514,7 +6784,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -5531,7 +6801,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -5548,7 +6818,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -5565,7 +6835,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -5582,7 +6852,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -5599,7 +6869,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -5616,7 +6886,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -5633,7 +6903,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -5650,7 +6920,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -5667,7 +6937,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -5684,7 +6954,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -5701,7 +6971,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -5718,7 +6988,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -5735,7 +7005,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -5752,7 +7022,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -5769,7 +7039,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -5786,7 +7056,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -5803,7 +7073,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -5820,7 +7090,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -5837,7 +7107,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -5854,7 +7124,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -5871,7 +7141,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -5888,7 +7158,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -5905,7 +7175,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -5922,7 +7192,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -5939,7 +7209,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -5956,7 +7226,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -5973,7 +7243,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -5990,7 +7260,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -6007,7 +7277,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -6024,7 +7294,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -6041,7 +7311,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -6058,7 +7328,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -6075,7 +7345,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -6092,7 +7362,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -6109,7 +7379,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -6126,7 +7396,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -6143,7 +7413,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -6160,7 +7430,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -6177,7 +7447,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -6194,7 +7464,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -6211,7 +7481,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -6228,7 +7498,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -6245,7 +7515,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -6262,7 +7532,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -6279,7 +7549,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -6296,7 +7566,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -6313,7 +7583,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -6330,7 +7600,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -6347,7 +7617,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -6364,7 +7634,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -6381,7 +7651,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -6398,7 +7668,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -6415,7 +7685,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -6432,7 +7702,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -6449,7 +7719,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -6466,7 +7736,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -6483,7 +7753,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -6500,7 +7770,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -6517,7 +7787,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -6534,7 +7804,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -6551,7 +7821,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -6568,7 +7838,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -6585,7 +7855,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -6602,7 +7872,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -6619,7 +7889,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -6636,7 +7906,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -6653,7 +7923,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -6670,7 +7940,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -6687,7 +7957,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -6704,7 +7974,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -6721,7 +7991,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -6738,7 +8008,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -6755,7 +8025,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -6772,7 +8042,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -6789,7 +8059,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -6806,7 +8076,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -6823,7 +8093,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -6840,7 +8110,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -6857,7 +8127,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -6874,7 +8144,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -6891,7 +8161,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -6908,7 +8178,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -6925,7 +8195,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -6942,7 +8212,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -6959,7 +8229,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -6976,7 +8246,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -6993,7 +8263,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -7010,7 +8280,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -7027,7 +8297,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -7044,7 +8314,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -7061,7 +8331,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -7078,7 +8348,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -7095,7 +8365,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -7112,7 +8382,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -7129,7 +8399,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -7146,7 +8416,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -7163,7 +8433,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -7180,7 +8450,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -7197,7 +8467,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -7214,7 +8484,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -7231,7 +8501,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -7248,7 +8518,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -7265,7 +8535,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -7282,7 +8552,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -7299,7 +8569,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -7316,7 +8586,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -7333,7 +8603,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -7350,7 +8620,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -7367,7 +8637,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -7384,7 +8654,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -7401,7 +8671,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -7418,7 +8688,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -7435,7 +8705,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -7452,7 +8722,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -7469,7 +8739,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -7486,7 +8756,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -7503,7 +8773,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -7520,7 +8790,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -7537,7 +8807,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -7554,7 +8824,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -7571,7 +8841,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -7588,7 +8858,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -7605,7 +8875,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -7622,7 +8892,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -7639,7 +8909,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -7656,7 +8926,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -7673,7 +8943,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -7690,7 +8960,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -7707,7 +8977,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -7724,7 +8994,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -7741,7 +9011,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -7758,7 +9028,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -7775,7 +9045,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -7792,7 +9062,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -7809,7 +9079,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -7826,7 +9096,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -7843,7 +9113,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -7860,7 +9130,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -7877,7 +9147,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -7894,7 +9164,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -7911,7 +9181,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -7928,7 +9198,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -7945,7 +9215,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -7962,7 +9232,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -7979,7 +9249,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -7996,7 +9266,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -8013,7 +9283,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -8030,7 +9300,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -8047,7 +9317,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -8064,7 +9334,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -8081,7 +9351,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -8098,7 +9368,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -8115,7 +9385,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -8132,7 +9402,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -8149,7 +9419,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -8166,7 +9436,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -8183,7 +9453,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -8200,7 +9470,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -8217,7 +9487,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -8234,7 +9504,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -8251,7 +9521,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -8268,7 +9538,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -8285,7 +9555,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -8302,7 +9572,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -8319,7 +9589,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -8336,7 +9606,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -8353,7 +9623,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -8370,7 +9640,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -8387,7 +9657,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -8404,7 +9674,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -8421,7 +9691,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>5</v>
       </c>
@@ -8438,7 +9708,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -8455,7 +9725,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -8472,7 +9742,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -8489,7 +9759,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -8506,7 +9776,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -8523,7 +9793,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -8540,7 +9810,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -8557,7 +9827,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -8574,7 +9844,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -8591,7 +9861,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -8608,7 +9878,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -8625,7 +9895,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -8642,7 +9912,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -8659,7 +9929,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -8676,7 +9946,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -8693,7 +9963,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -8710,7 +9980,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -8727,7 +9997,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -8744,7 +10014,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -8761,7 +10031,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -8778,7 +10048,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -8795,7 +10065,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>5</v>
       </c>
@@ -8812,7 +10082,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -8829,7 +10099,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -8846,7 +10116,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -8863,7 +10133,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>5</v>
       </c>
@@ -8880,7 +10150,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -8897,7 +10167,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -8914,7 +10184,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -8931,7 +10201,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -8948,7 +10218,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -8965,7 +10235,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -8982,7 +10252,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -8999,7 +10269,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -9016,7 +10286,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -9031,6 +10301,3359 @@
       </c>
       <c r="E350" t="s">
         <v>721</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" t="s">
+        <v>6</v>
+      </c>
+      <c r="C351" t="s">
+        <v>739</v>
+      </c>
+      <c r="D351" t="s">
+        <v>738</v>
+      </c>
+      <c r="E351" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" t="s">
+        <v>6</v>
+      </c>
+      <c r="C352" t="s">
+        <v>739</v>
+      </c>
+      <c r="D352" t="s">
+        <v>740</v>
+      </c>
+      <c r="E352" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>5</v>
+      </c>
+      <c r="B353" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353" t="s">
+        <v>739</v>
+      </c>
+      <c r="D353" t="s">
+        <v>741</v>
+      </c>
+      <c r="E353" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354" t="s">
+        <v>739</v>
+      </c>
+      <c r="D354" t="s">
+        <v>742</v>
+      </c>
+      <c r="E354" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355" t="s">
+        <v>739</v>
+      </c>
+      <c r="D355" t="s">
+        <v>744</v>
+      </c>
+      <c r="E355" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>5</v>
+      </c>
+      <c r="B356" t="s">
+        <v>6</v>
+      </c>
+      <c r="C356" t="s">
+        <v>739</v>
+      </c>
+      <c r="D356" t="s">
+        <v>743</v>
+      </c>
+      <c r="E356" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" t="s">
+        <v>6</v>
+      </c>
+      <c r="C357" t="s">
+        <v>751</v>
+      </c>
+      <c r="D357" t="s">
+        <v>752</v>
+      </c>
+      <c r="E357" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>5</v>
+      </c>
+      <c r="B358" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358" t="s">
+        <v>751</v>
+      </c>
+      <c r="D358" t="s">
+        <v>753</v>
+      </c>
+      <c r="E358" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>5</v>
+      </c>
+      <c r="B359" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359" t="s">
+        <v>751</v>
+      </c>
+      <c r="D359" t="s">
+        <v>758</v>
+      </c>
+      <c r="E359" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>5</v>
+      </c>
+      <c r="B360" t="s">
+        <v>6</v>
+      </c>
+      <c r="C360" t="s">
+        <v>751</v>
+      </c>
+      <c r="D360" t="s">
+        <v>754</v>
+      </c>
+      <c r="E360" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>5</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361" t="s">
+        <v>751</v>
+      </c>
+      <c r="D361" t="s">
+        <v>755</v>
+      </c>
+      <c r="E361" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" t="s">
+        <v>751</v>
+      </c>
+      <c r="D362" t="s">
+        <v>756</v>
+      </c>
+      <c r="E362" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363" t="s">
+        <v>751</v>
+      </c>
+      <c r="D363" t="s">
+        <v>757</v>
+      </c>
+      <c r="E363" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" t="s">
+        <v>766</v>
+      </c>
+      <c r="D364" t="s">
+        <v>767</v>
+      </c>
+      <c r="E364" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365" t="s">
+        <v>766</v>
+      </c>
+      <c r="D365" t="s">
+        <v>768</v>
+      </c>
+      <c r="E365" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366" t="s">
+        <v>766</v>
+      </c>
+      <c r="D366" t="s">
+        <v>769</v>
+      </c>
+      <c r="E366" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367" t="s">
+        <v>766</v>
+      </c>
+      <c r="D367" t="s">
+        <v>770</v>
+      </c>
+      <c r="E367" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368" t="s">
+        <v>766</v>
+      </c>
+      <c r="D368" t="s">
+        <v>771</v>
+      </c>
+      <c r="E368" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" t="s">
+        <v>766</v>
+      </c>
+      <c r="D369" t="s">
+        <v>772</v>
+      </c>
+      <c r="E369" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>5</v>
+      </c>
+      <c r="B370" t="s">
+        <v>6</v>
+      </c>
+      <c r="C370" t="s">
+        <v>766</v>
+      </c>
+      <c r="D370" t="s">
+        <v>773</v>
+      </c>
+      <c r="E370" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>5</v>
+      </c>
+      <c r="B371" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371" t="s">
+        <v>781</v>
+      </c>
+      <c r="D371" t="s">
+        <v>782</v>
+      </c>
+      <c r="E371" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372" t="s">
+        <v>781</v>
+      </c>
+      <c r="D372" t="s">
+        <v>783</v>
+      </c>
+      <c r="E372" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373" t="s">
+        <v>781</v>
+      </c>
+      <c r="D373" t="s">
+        <v>784</v>
+      </c>
+      <c r="E373" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" t="s">
+        <v>781</v>
+      </c>
+      <c r="D374" t="s">
+        <v>785</v>
+      </c>
+      <c r="E374" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>5</v>
+      </c>
+      <c r="B375" t="s">
+        <v>6</v>
+      </c>
+      <c r="C375" t="s">
+        <v>781</v>
+      </c>
+      <c r="D375" t="s">
+        <v>786</v>
+      </c>
+      <c r="E375" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>781</v>
+      </c>
+      <c r="D376" t="s">
+        <v>787</v>
+      </c>
+      <c r="E376" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>5</v>
+      </c>
+      <c r="B377" t="s">
+        <v>6</v>
+      </c>
+      <c r="C377" t="s">
+        <v>794</v>
+      </c>
+      <c r="D377" t="s">
+        <v>795</v>
+      </c>
+      <c r="E377" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" t="s">
+        <v>794</v>
+      </c>
+      <c r="D378" t="s">
+        <v>796</v>
+      </c>
+      <c r="E378" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>5</v>
+      </c>
+      <c r="B379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" t="s">
+        <v>794</v>
+      </c>
+      <c r="D379" t="s">
+        <v>797</v>
+      </c>
+      <c r="E379" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380" t="s">
+        <v>794</v>
+      </c>
+      <c r="D380" t="s">
+        <v>798</v>
+      </c>
+      <c r="E380" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>5</v>
+      </c>
+      <c r="B381" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381" t="s">
+        <v>794</v>
+      </c>
+      <c r="D381" t="s">
+        <v>799</v>
+      </c>
+      <c r="E381" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" t="s">
+        <v>794</v>
+      </c>
+      <c r="D382" t="s">
+        <v>803</v>
+      </c>
+      <c r="E382" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" t="s">
+        <v>794</v>
+      </c>
+      <c r="D383" t="s">
+        <v>800</v>
+      </c>
+      <c r="E383" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>5</v>
+      </c>
+      <c r="B384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" t="s">
+        <v>809</v>
+      </c>
+      <c r="D384" t="s">
+        <v>810</v>
+      </c>
+      <c r="E384" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>5</v>
+      </c>
+      <c r="B385" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385" t="s">
+        <v>809</v>
+      </c>
+      <c r="D385" t="s">
+        <v>811</v>
+      </c>
+      <c r="E385" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>5</v>
+      </c>
+      <c r="B386" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" t="s">
+        <v>809</v>
+      </c>
+      <c r="D386" t="s">
+        <v>812</v>
+      </c>
+      <c r="E386" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>5</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387" t="s">
+        <v>809</v>
+      </c>
+      <c r="D387" t="s">
+        <v>813</v>
+      </c>
+      <c r="E387" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>5</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" t="s">
+        <v>809</v>
+      </c>
+      <c r="D388" t="s">
+        <v>814</v>
+      </c>
+      <c r="E388" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" t="s">
+        <v>809</v>
+      </c>
+      <c r="D389" t="s">
+        <v>815</v>
+      </c>
+      <c r="E389" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>5</v>
+      </c>
+      <c r="B390" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" t="s">
+        <v>822</v>
+      </c>
+      <c r="D390" t="s">
+        <v>823</v>
+      </c>
+      <c r="E390" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" t="s">
+        <v>822</v>
+      </c>
+      <c r="D391" t="s">
+        <v>824</v>
+      </c>
+      <c r="E391" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" t="s">
+        <v>822</v>
+      </c>
+      <c r="D392" t="s">
+        <v>825</v>
+      </c>
+      <c r="E392" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>5</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" t="s">
+        <v>822</v>
+      </c>
+      <c r="D393" t="s">
+        <v>826</v>
+      </c>
+      <c r="E393" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>5</v>
+      </c>
+      <c r="B394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" t="s">
+        <v>822</v>
+      </c>
+      <c r="D394" t="s">
+        <v>827</v>
+      </c>
+      <c r="E394" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>5</v>
+      </c>
+      <c r="B395" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" t="s">
+        <v>822</v>
+      </c>
+      <c r="D395" t="s">
+        <v>828</v>
+      </c>
+      <c r="E395" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" t="s">
+        <v>835</v>
+      </c>
+      <c r="D396" t="s">
+        <v>836</v>
+      </c>
+      <c r="E396" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>5</v>
+      </c>
+      <c r="B397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397" t="s">
+        <v>835</v>
+      </c>
+      <c r="D397" t="s">
+        <v>837</v>
+      </c>
+      <c r="E397" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>5</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" t="s">
+        <v>835</v>
+      </c>
+      <c r="D398" t="s">
+        <v>838</v>
+      </c>
+      <c r="E398" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>5</v>
+      </c>
+      <c r="B399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" t="s">
+        <v>835</v>
+      </c>
+      <c r="D399" t="s">
+        <v>839</v>
+      </c>
+      <c r="E399" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400" t="s">
+        <v>835</v>
+      </c>
+      <c r="D400" t="s">
+        <v>840</v>
+      </c>
+      <c r="E400" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" t="s">
+        <v>835</v>
+      </c>
+      <c r="D401" t="s">
+        <v>841</v>
+      </c>
+      <c r="E401" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>5</v>
+      </c>
+      <c r="B402" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402" t="s">
+        <v>848</v>
+      </c>
+      <c r="D402" t="s">
+        <v>849</v>
+      </c>
+      <c r="E402" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" t="s">
+        <v>848</v>
+      </c>
+      <c r="D403" t="s">
+        <v>850</v>
+      </c>
+      <c r="E403" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>5</v>
+      </c>
+      <c r="B404" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" t="s">
+        <v>848</v>
+      </c>
+      <c r="D404" t="s">
+        <v>851</v>
+      </c>
+      <c r="E404" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>5</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" t="s">
+        <v>848</v>
+      </c>
+      <c r="D405" t="s">
+        <v>852</v>
+      </c>
+      <c r="E405" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>5</v>
+      </c>
+      <c r="B406" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" t="s">
+        <v>848</v>
+      </c>
+      <c r="D406" t="s">
+        <v>853</v>
+      </c>
+      <c r="E406" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>5</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s">
+        <v>848</v>
+      </c>
+      <c r="D407" t="s">
+        <v>854</v>
+      </c>
+      <c r="E407" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408" t="s">
+        <v>848</v>
+      </c>
+      <c r="D408" t="s">
+        <v>861</v>
+      </c>
+      <c r="E408" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" t="s">
+        <v>863</v>
+      </c>
+      <c r="D409" t="s">
+        <v>864</v>
+      </c>
+      <c r="E409" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>5</v>
+      </c>
+      <c r="B410" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" t="s">
+        <v>863</v>
+      </c>
+      <c r="D410" t="s">
+        <v>865</v>
+      </c>
+      <c r="E410" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>5</v>
+      </c>
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411" t="s">
+        <v>863</v>
+      </c>
+      <c r="D411" t="s">
+        <v>866</v>
+      </c>
+      <c r="E411" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" t="s">
+        <v>863</v>
+      </c>
+      <c r="D412" t="s">
+        <v>867</v>
+      </c>
+      <c r="E412" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>5</v>
+      </c>
+      <c r="B413" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413" t="s">
+        <v>863</v>
+      </c>
+      <c r="D413" t="s">
+        <v>868</v>
+      </c>
+      <c r="E413" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>5</v>
+      </c>
+      <c r="B414" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414" t="s">
+        <v>863</v>
+      </c>
+      <c r="D414" t="s">
+        <v>869</v>
+      </c>
+      <c r="E414" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>5</v>
+      </c>
+      <c r="B415" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" t="s">
+        <v>863</v>
+      </c>
+      <c r="D415" t="s">
+        <v>870</v>
+      </c>
+      <c r="E415" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>5</v>
+      </c>
+      <c r="B416" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416" t="s">
+        <v>877</v>
+      </c>
+      <c r="D416" t="s">
+        <v>884</v>
+      </c>
+      <c r="E416" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>5</v>
+      </c>
+      <c r="B417" t="s">
+        <v>6</v>
+      </c>
+      <c r="C417" t="s">
+        <v>877</v>
+      </c>
+      <c r="D417" t="s">
+        <v>878</v>
+      </c>
+      <c r="E417" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" t="s">
+        <v>877</v>
+      </c>
+      <c r="D418" t="s">
+        <v>879</v>
+      </c>
+      <c r="E418" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B419" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419" t="s">
+        <v>877</v>
+      </c>
+      <c r="D419" t="s">
+        <v>880</v>
+      </c>
+      <c r="E419" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>5</v>
+      </c>
+      <c r="B420" t="s">
+        <v>6</v>
+      </c>
+      <c r="C420" t="s">
+        <v>877</v>
+      </c>
+      <c r="D420" t="s">
+        <v>881</v>
+      </c>
+      <c r="E420" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>5</v>
+      </c>
+      <c r="B421" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421" t="s">
+        <v>877</v>
+      </c>
+      <c r="D421" t="s">
+        <v>882</v>
+      </c>
+      <c r="E421" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>5</v>
+      </c>
+      <c r="B422" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" t="s">
+        <v>877</v>
+      </c>
+      <c r="D422" t="s">
+        <v>885</v>
+      </c>
+      <c r="E422" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>5</v>
+      </c>
+      <c r="B423" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" t="s">
+        <v>892</v>
+      </c>
+      <c r="D423" t="s">
+        <v>893</v>
+      </c>
+      <c r="E423" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" t="s">
+        <v>892</v>
+      </c>
+      <c r="D424" t="s">
+        <v>895</v>
+      </c>
+      <c r="E424" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" t="s">
+        <v>892</v>
+      </c>
+      <c r="D425" t="s">
+        <v>896</v>
+      </c>
+      <c r="E425" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>5</v>
+      </c>
+      <c r="B426" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>892</v>
+      </c>
+      <c r="D426" t="s">
+        <v>898</v>
+      </c>
+      <c r="E426" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>5</v>
+      </c>
+      <c r="B427" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427" t="s">
+        <v>892</v>
+      </c>
+      <c r="D427" t="s">
+        <v>900</v>
+      </c>
+      <c r="E427" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>5</v>
+      </c>
+      <c r="B428" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428" t="s">
+        <v>902</v>
+      </c>
+      <c r="D428" t="s">
+        <v>903</v>
+      </c>
+      <c r="E428" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>5</v>
+      </c>
+      <c r="B429" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429" t="s">
+        <v>902</v>
+      </c>
+      <c r="D429" t="s">
+        <v>905</v>
+      </c>
+      <c r="E429" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>5</v>
+      </c>
+      <c r="B430" t="s">
+        <v>6</v>
+      </c>
+      <c r="C430" t="s">
+        <v>902</v>
+      </c>
+      <c r="D430" t="s">
+        <v>907</v>
+      </c>
+      <c r="E430" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>5</v>
+      </c>
+      <c r="B431" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431" t="s">
+        <v>902</v>
+      </c>
+      <c r="D431" t="s">
+        <v>909</v>
+      </c>
+      <c r="E431" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>5</v>
+      </c>
+      <c r="B432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" t="s">
+        <v>902</v>
+      </c>
+      <c r="D432" t="s">
+        <v>912</v>
+      </c>
+      <c r="E432" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" t="s">
+        <v>913</v>
+      </c>
+      <c r="D433" t="s">
+        <v>914</v>
+      </c>
+      <c r="E433" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>5</v>
+      </c>
+      <c r="B434" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s">
+        <v>913</v>
+      </c>
+      <c r="D434" t="s">
+        <v>915</v>
+      </c>
+      <c r="E434" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" t="s">
+        <v>913</v>
+      </c>
+      <c r="D435" t="s">
+        <v>916</v>
+      </c>
+      <c r="E435" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" t="s">
+        <v>913</v>
+      </c>
+      <c r="D436" t="s">
+        <v>917</v>
+      </c>
+      <c r="E436" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>5</v>
+      </c>
+      <c r="B437" t="s">
+        <v>6</v>
+      </c>
+      <c r="C437" t="s">
+        <v>913</v>
+      </c>
+      <c r="D437" t="s">
+        <v>918</v>
+      </c>
+      <c r="E437" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>5</v>
+      </c>
+      <c r="B438" t="s">
+        <v>6</v>
+      </c>
+      <c r="C438" t="s">
+        <v>913</v>
+      </c>
+      <c r="D438" t="s">
+        <v>919</v>
+      </c>
+      <c r="E438" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>5</v>
+      </c>
+      <c r="B439" t="s">
+        <v>6</v>
+      </c>
+      <c r="C439" t="s">
+        <v>926</v>
+      </c>
+      <c r="D439" t="s">
+        <v>927</v>
+      </c>
+      <c r="E439" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>5</v>
+      </c>
+      <c r="B440" t="s">
+        <v>6</v>
+      </c>
+      <c r="C440" t="s">
+        <v>926</v>
+      </c>
+      <c r="D440" t="s">
+        <v>928</v>
+      </c>
+      <c r="E440" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>5</v>
+      </c>
+      <c r="B441" t="s">
+        <v>6</v>
+      </c>
+      <c r="C441" t="s">
+        <v>926</v>
+      </c>
+      <c r="D441" t="s">
+        <v>929</v>
+      </c>
+      <c r="E441" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>5</v>
+      </c>
+      <c r="B442" t="s">
+        <v>6</v>
+      </c>
+      <c r="C442" t="s">
+        <v>926</v>
+      </c>
+      <c r="D442" t="s">
+        <v>930</v>
+      </c>
+      <c r="E442" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>5</v>
+      </c>
+      <c r="B443" t="s">
+        <v>6</v>
+      </c>
+      <c r="C443" t="s">
+        <v>926</v>
+      </c>
+      <c r="D443" t="s">
+        <v>931</v>
+      </c>
+      <c r="E443" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444" t="s">
+        <v>6</v>
+      </c>
+      <c r="C444" t="s">
+        <v>926</v>
+      </c>
+      <c r="D444" t="s">
+        <v>932</v>
+      </c>
+      <c r="E444" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445" t="s">
+        <v>6</v>
+      </c>
+      <c r="C445" t="s">
+        <v>926</v>
+      </c>
+      <c r="D445" t="s">
+        <v>933</v>
+      </c>
+      <c r="E445" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B446" t="s">
+        <v>6</v>
+      </c>
+      <c r="C446" t="s">
+        <v>941</v>
+      </c>
+      <c r="D446" t="s">
+        <v>942</v>
+      </c>
+      <c r="E446" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447" t="s">
+        <v>6</v>
+      </c>
+      <c r="C447" t="s">
+        <v>941</v>
+      </c>
+      <c r="D447" t="s">
+        <v>943</v>
+      </c>
+      <c r="E447" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448" t="s">
+        <v>941</v>
+      </c>
+      <c r="D448" t="s">
+        <v>944</v>
+      </c>
+      <c r="E448" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" t="s">
+        <v>6</v>
+      </c>
+      <c r="C449" t="s">
+        <v>941</v>
+      </c>
+      <c r="D449" t="s">
+        <v>945</v>
+      </c>
+      <c r="E449" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450" t="s">
+        <v>941</v>
+      </c>
+      <c r="D450" t="s">
+        <v>946</v>
+      </c>
+      <c r="E450" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451" t="s">
+        <v>941</v>
+      </c>
+      <c r="D451" t="s">
+        <v>947</v>
+      </c>
+      <c r="E451" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452" t="s">
+        <v>6</v>
+      </c>
+      <c r="C452" t="s">
+        <v>941</v>
+      </c>
+      <c r="D452" t="s">
+        <v>948</v>
+      </c>
+      <c r="E452" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" t="s">
+        <v>6</v>
+      </c>
+      <c r="C453" t="s">
+        <v>956</v>
+      </c>
+      <c r="D453" t="s">
+        <v>957</v>
+      </c>
+      <c r="E453" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" t="s">
+        <v>6</v>
+      </c>
+      <c r="C454" t="s">
+        <v>956</v>
+      </c>
+      <c r="D454" t="s">
+        <v>958</v>
+      </c>
+      <c r="E454" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>5</v>
+      </c>
+      <c r="B455" t="s">
+        <v>6</v>
+      </c>
+      <c r="C455" t="s">
+        <v>956</v>
+      </c>
+      <c r="D455" t="s">
+        <v>959</v>
+      </c>
+      <c r="E455" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" t="s">
+        <v>956</v>
+      </c>
+      <c r="D456" t="s">
+        <v>960</v>
+      </c>
+      <c r="E456" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>5</v>
+      </c>
+      <c r="B457" t="s">
+        <v>6</v>
+      </c>
+      <c r="C457" t="s">
+        <v>956</v>
+      </c>
+      <c r="D457" t="s">
+        <v>961</v>
+      </c>
+      <c r="E457" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>5</v>
+      </c>
+      <c r="B458" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" t="s">
+        <v>956</v>
+      </c>
+      <c r="D458" t="s">
+        <v>962</v>
+      </c>
+      <c r="E458" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>5</v>
+      </c>
+      <c r="B459" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459" t="s">
+        <v>956</v>
+      </c>
+      <c r="D459" t="s">
+        <v>963</v>
+      </c>
+      <c r="E459" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>5</v>
+      </c>
+      <c r="B460" t="s">
+        <v>6</v>
+      </c>
+      <c r="C460" t="s">
+        <v>971</v>
+      </c>
+      <c r="D460" t="s">
+        <v>972</v>
+      </c>
+      <c r="E460" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>5</v>
+      </c>
+      <c r="B461" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461" t="s">
+        <v>971</v>
+      </c>
+      <c r="D461" t="s">
+        <v>973</v>
+      </c>
+      <c r="E461" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462" t="s">
+        <v>971</v>
+      </c>
+      <c r="D462" t="s">
+        <v>974</v>
+      </c>
+      <c r="E462" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463" t="s">
+        <v>971</v>
+      </c>
+      <c r="D463" t="s">
+        <v>975</v>
+      </c>
+      <c r="E463" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" t="s">
+        <v>6</v>
+      </c>
+      <c r="C464" t="s">
+        <v>971</v>
+      </c>
+      <c r="D464" t="s">
+        <v>976</v>
+      </c>
+      <c r="E464" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465" t="s">
+        <v>971</v>
+      </c>
+      <c r="D465" t="s">
+        <v>977</v>
+      </c>
+      <c r="E465" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>5</v>
+      </c>
+      <c r="B466" t="s">
+        <v>6</v>
+      </c>
+      <c r="C466" t="s">
+        <v>971</v>
+      </c>
+      <c r="D466" t="s">
+        <v>978</v>
+      </c>
+      <c r="E466" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" t="s">
+        <v>986</v>
+      </c>
+      <c r="D467" t="s">
+        <v>987</v>
+      </c>
+      <c r="E467" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" t="s">
+        <v>6</v>
+      </c>
+      <c r="C468" t="s">
+        <v>986</v>
+      </c>
+      <c r="D468" t="s">
+        <v>988</v>
+      </c>
+      <c r="E468" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" t="s">
+        <v>6</v>
+      </c>
+      <c r="C469" t="s">
+        <v>986</v>
+      </c>
+      <c r="D469" t="s">
+        <v>989</v>
+      </c>
+      <c r="E469" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>5</v>
+      </c>
+      <c r="B470" t="s">
+        <v>6</v>
+      </c>
+      <c r="C470" t="s">
+        <v>986</v>
+      </c>
+      <c r="D470" t="s">
+        <v>990</v>
+      </c>
+      <c r="E470" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471" t="s">
+        <v>986</v>
+      </c>
+      <c r="D471" t="s">
+        <v>991</v>
+      </c>
+      <c r="E471" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" t="s">
+        <v>6</v>
+      </c>
+      <c r="C472" t="s">
+        <v>986</v>
+      </c>
+      <c r="D472" t="s">
+        <v>992</v>
+      </c>
+      <c r="E472" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" t="s">
+        <v>6</v>
+      </c>
+      <c r="C473" t="s">
+        <v>999</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" t="s">
+        <v>6</v>
+      </c>
+      <c r="C474" t="s">
+        <v>999</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" t="s">
+        <v>6</v>
+      </c>
+      <c r="C475" t="s">
+        <v>999</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" t="s">
+        <v>6</v>
+      </c>
+      <c r="C476" t="s">
+        <v>999</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" t="s">
+        <v>6</v>
+      </c>
+      <c r="C477" t="s">
+        <v>999</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478" t="s">
+        <v>6</v>
+      </c>
+      <c r="C478" t="s">
+        <v>999</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479" t="s">
+        <v>6</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" t="s">
+        <v>6</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" t="s">
+        <v>6</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>5</v>
+      </c>
+      <c r="B482" t="s">
+        <v>6</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483" t="s">
+        <v>6</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484" t="s">
+        <v>6</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>5</v>
+      </c>
+      <c r="B485" t="s">
+        <v>6</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>5</v>
+      </c>
+      <c r="B486" t="s">
+        <v>6</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>5</v>
+      </c>
+      <c r="B487" t="s">
+        <v>6</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>5</v>
+      </c>
+      <c r="B488" t="s">
+        <v>6</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>5</v>
+      </c>
+      <c r="B489" t="s">
+        <v>6</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" t="s">
+        <v>6</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D490" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>5</v>
+      </c>
+      <c r="B491" t="s">
+        <v>6</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>5</v>
+      </c>
+      <c r="B492" t="s">
+        <v>6</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>5</v>
+      </c>
+      <c r="B493" t="s">
+        <v>6</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>5</v>
+      </c>
+      <c r="B494" t="s">
+        <v>6</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>5</v>
+      </c>
+      <c r="B495" t="s">
+        <v>6</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>5</v>
+      </c>
+      <c r="B496" t="s">
+        <v>6</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>5</v>
+      </c>
+      <c r="B497" t="s">
+        <v>6</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>5</v>
+      </c>
+      <c r="B498" t="s">
+        <v>6</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>5</v>
+      </c>
+      <c r="B499" t="s">
+        <v>6</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>5</v>
+      </c>
+      <c r="B500" t="s">
+        <v>6</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>5</v>
+      </c>
+      <c r="B501" t="s">
+        <v>6</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>5</v>
+      </c>
+      <c r="B502" t="s">
+        <v>6</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503" t="s">
+        <v>6</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>5</v>
+      </c>
+      <c r="B504" t="s">
+        <v>6</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>5</v>
+      </c>
+      <c r="B505" t="s">
+        <v>6</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>5</v>
+      </c>
+      <c r="B506" t="s">
+        <v>6</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>5</v>
+      </c>
+      <c r="B507" t="s">
+        <v>6</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>5</v>
+      </c>
+      <c r="B508" t="s">
+        <v>6</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>5</v>
+      </c>
+      <c r="B509" t="s">
+        <v>6</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>5</v>
+      </c>
+      <c r="B510" t="s">
+        <v>6</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>5</v>
+      </c>
+      <c r="B511" t="s">
+        <v>6</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>5</v>
+      </c>
+      <c r="B512" t="s">
+        <v>6</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>5</v>
+      </c>
+      <c r="B513" t="s">
+        <v>6</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>5</v>
+      </c>
+      <c r="B514" t="s">
+        <v>6</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>5</v>
+      </c>
+      <c r="B515" t="s">
+        <v>6</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>5</v>
+      </c>
+      <c r="B516" t="s">
+        <v>6</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>5</v>
+      </c>
+      <c r="B517" t="s">
+        <v>6</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>5</v>
+      </c>
+      <c r="B518" t="s">
+        <v>6</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>5</v>
+      </c>
+      <c r="B519" t="s">
+        <v>6</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>5</v>
+      </c>
+      <c r="B520" t="s">
+        <v>6</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>5</v>
+      </c>
+      <c r="B521" t="s">
+        <v>6</v>
+      </c>
+      <c r="C521" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>5</v>
+      </c>
+      <c r="B522" t="s">
+        <v>6</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>5</v>
+      </c>
+      <c r="B523" t="s">
+        <v>6</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E523" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>5</v>
+      </c>
+      <c r="B524" t="s">
+        <v>6</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>5</v>
+      </c>
+      <c r="B525" t="s">
+        <v>6</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>5</v>
+      </c>
+      <c r="B526" t="s">
+        <v>6</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>5</v>
+      </c>
+      <c r="B527" t="s">
+        <v>6</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>5</v>
+      </c>
+      <c r="B528" t="s">
+        <v>6</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>5</v>
+      </c>
+      <c r="B529" t="s">
+        <v>6</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>5</v>
+      </c>
+      <c r="B530" t="s">
+        <v>6</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>5</v>
+      </c>
+      <c r="B531" t="s">
+        <v>6</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>5</v>
+      </c>
+      <c r="B532" t="s">
+        <v>6</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>5</v>
+      </c>
+      <c r="B533" t="s">
+        <v>6</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>5</v>
+      </c>
+      <c r="B534" t="s">
+        <v>6</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>5</v>
+      </c>
+      <c r="B535" t="s">
+        <v>6</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>5</v>
+      </c>
+      <c r="B536" t="s">
+        <v>6</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>5</v>
+      </c>
+      <c r="B537" t="s">
+        <v>6</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>5</v>
+      </c>
+      <c r="B538" t="s">
+        <v>6</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>5</v>
+      </c>
+      <c r="B539" t="s">
+        <v>6</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>5</v>
+      </c>
+      <c r="B540" t="s">
+        <v>6</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>5</v>
+      </c>
+      <c r="B541" t="s">
+        <v>6</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>5</v>
+      </c>
+      <c r="B542" t="s">
+        <v>6</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>5</v>
+      </c>
+      <c r="B543" t="s">
+        <v>6</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>5</v>
+      </c>
+      <c r="B544" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>5</v>
+      </c>
+      <c r="B545" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>5</v>
+      </c>
+      <c r="B546" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>5</v>
+      </c>
+      <c r="B547" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>5</v>
+      </c>
+      <c r="B548" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>5</v>
+      </c>
+      <c r="B549" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>5</v>
+      </c>
+      <c r="B550" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>5</v>
+      </c>
+      <c r="B551" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>5</v>
+      </c>
+      <c r="B552" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/faza1_tabela.xlsx
+++ b/faza1_tabela.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokan\Documents\LENA\Masters\OPJ\natural-language-processing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125EA5D-C54A-4DDF-95FB-0AC451BC7AC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DB17E-8B59-490C-89DA-D432E0A4CB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-98" windowWidth="28995" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1165">
   <si>
     <t>ProgrammingLanguageName</t>
   </si>
@@ -3473,6 +3473,48 @@
   </si>
   <si>
     <t>Parsiranje csv fajla u posebnu klasu</t>
+  </si>
+  <si>
+    <t>Nadovezivanje fajlova tako da se cuva samo zaglavlje prvog fajla a ostala zaglavlja se uklanjanju</t>
+  </si>
+  <si>
+    <t>96_mergeFileKeepFirstHeaderOnly</t>
+  </si>
+  <si>
+    <t>95_findAverageSalary</t>
+  </si>
+  <si>
+    <t>95_findAverageValueAcrossTable</t>
+  </si>
+  <si>
+    <t>Pronalazenje srednje vrednosti iz svih celija tabele</t>
+  </si>
+  <si>
+    <t>Pronalazenje srednje vrednosti kolone za platu</t>
+  </si>
+  <si>
+    <t>92_getFirstAndLastSentenceFile</t>
+  </si>
+  <si>
+    <t>92_getMostCommonWordFromFile</t>
+  </si>
+  <si>
+    <t>Ekstrakcija najcesce koriscene reci u tekstualnom fajlu</t>
+  </si>
+  <si>
+    <t>Ekstrakcija prve i poslednje recenice iz tekstualnog fajla</t>
+  </si>
+  <si>
+    <t>79_copyFile1</t>
+  </si>
+  <si>
+    <t>79_copyFile2</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla u vise razlicitih lokacija datim u nizu</t>
+  </si>
+  <si>
+    <t>Kopiranje fajla n puta u odredjenu putanju</t>
   </si>
 </sst>
 </file>
@@ -4338,10 +4380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E552"/>
+  <dimension ref="A1:E550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C509" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E543" sqref="E543"/>
+    <sheetView tabSelected="1" topLeftCell="C401" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E409" sqref="E409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11283,10 +11325,10 @@
         <v>848</v>
       </c>
       <c r="D408" t="s">
-        <v>861</v>
+        <v>1161</v>
       </c>
       <c r="E408" t="s">
-        <v>862</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -11297,13 +11339,13 @@
         <v>6</v>
       </c>
       <c r="C409" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="D409" t="s">
-        <v>864</v>
+        <v>1162</v>
       </c>
       <c r="E409" t="s">
-        <v>871</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -11314,13 +11356,13 @@
         <v>6</v>
       </c>
       <c r="C410" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="D410" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E410" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -11334,10 +11376,10 @@
         <v>863</v>
       </c>
       <c r="D411" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E411" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -11351,10 +11393,10 @@
         <v>863</v>
       </c>
       <c r="D412" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E412" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -11368,10 +11410,10 @@
         <v>863</v>
       </c>
       <c r="D413" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E413" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -11385,10 +11427,10 @@
         <v>863</v>
       </c>
       <c r="D414" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E414" t="s">
-        <v>776</v>
+        <v>874</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -11402,10 +11444,10 @@
         <v>863</v>
       </c>
       <c r="D415" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E415" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -11416,13 +11458,13 @@
         <v>6</v>
       </c>
       <c r="C416" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="D416" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="E416" t="s">
-        <v>883</v>
+        <v>776</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -11433,13 +11475,13 @@
         <v>6</v>
       </c>
       <c r="C417" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="D417" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E417" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -11453,10 +11495,10 @@
         <v>877</v>
       </c>
       <c r="D418" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="E418" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -11470,10 +11512,10 @@
         <v>877</v>
       </c>
       <c r="D419" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E419" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -11487,10 +11529,10 @@
         <v>877</v>
       </c>
       <c r="D420" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E420" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -11504,10 +11546,10 @@
         <v>877</v>
       </c>
       <c r="D421" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E421" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -11521,10 +11563,10 @@
         <v>877</v>
       </c>
       <c r="D422" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E422" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -11535,13 +11577,13 @@
         <v>6</v>
       </c>
       <c r="C423" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D423" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="E423" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -11552,13 +11594,13 @@
         <v>6</v>
       </c>
       <c r="C424" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D424" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E424" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -11572,10 +11614,10 @@
         <v>892</v>
       </c>
       <c r="D425" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E425" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -11589,10 +11631,10 @@
         <v>892</v>
       </c>
       <c r="D426" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E426" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -11606,10 +11648,10 @@
         <v>892</v>
       </c>
       <c r="D427" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E427" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -11620,13 +11662,13 @@
         <v>6</v>
       </c>
       <c r="C428" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="D428" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="E428" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -11637,13 +11679,13 @@
         <v>6</v>
       </c>
       <c r="C429" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="D429" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E429" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -11657,10 +11699,10 @@
         <v>902</v>
       </c>
       <c r="D430" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E430" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -11674,10 +11716,10 @@
         <v>902</v>
       </c>
       <c r="D431" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E431" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -11691,10 +11733,10 @@
         <v>902</v>
       </c>
       <c r="D432" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E432" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -11705,13 +11747,13 @@
         <v>6</v>
       </c>
       <c r="C433" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="D433" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E433" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -11722,13 +11764,13 @@
         <v>6</v>
       </c>
       <c r="C434" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="D434" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E434" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -11742,10 +11784,10 @@
         <v>913</v>
       </c>
       <c r="D435" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E435" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -11759,10 +11801,10 @@
         <v>913</v>
       </c>
       <c r="D436" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E436" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -11776,10 +11818,10 @@
         <v>913</v>
       </c>
       <c r="D437" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E437" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -11793,10 +11835,10 @@
         <v>913</v>
       </c>
       <c r="D438" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E438" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -11807,13 +11849,13 @@
         <v>6</v>
       </c>
       <c r="C439" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="D439" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="E439" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -11824,13 +11866,13 @@
         <v>6</v>
       </c>
       <c r="C440" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="D440" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="E440" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -11844,10 +11886,10 @@
         <v>926</v>
       </c>
       <c r="D441" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E441" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -11861,10 +11903,10 @@
         <v>926</v>
       </c>
       <c r="D442" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E442" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -11878,10 +11920,10 @@
         <v>926</v>
       </c>
       <c r="D443" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E443" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -11895,10 +11937,10 @@
         <v>926</v>
       </c>
       <c r="D444" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E444" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -11912,10 +11954,10 @@
         <v>926</v>
       </c>
       <c r="D445" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E445" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -11926,13 +11968,13 @@
         <v>6</v>
       </c>
       <c r="C446" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="D446" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="E446" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
@@ -11943,13 +11985,13 @@
         <v>6</v>
       </c>
       <c r="C447" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="D447" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="E447" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -11963,10 +12005,10 @@
         <v>941</v>
       </c>
       <c r="D448" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E448" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -11980,10 +12022,10 @@
         <v>941</v>
       </c>
       <c r="D449" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E449" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
@@ -11997,10 +12039,10 @@
         <v>941</v>
       </c>
       <c r="D450" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E450" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
@@ -12014,10 +12056,10 @@
         <v>941</v>
       </c>
       <c r="D451" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E451" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
@@ -12031,10 +12073,10 @@
         <v>941</v>
       </c>
       <c r="D452" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E452" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
@@ -12045,13 +12087,13 @@
         <v>6</v>
       </c>
       <c r="C453" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="D453" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="E453" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
@@ -12062,13 +12104,13 @@
         <v>6</v>
       </c>
       <c r="C454" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="D454" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="E454" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
@@ -12082,10 +12124,10 @@
         <v>956</v>
       </c>
       <c r="D455" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E455" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
@@ -12099,10 +12141,10 @@
         <v>956</v>
       </c>
       <c r="D456" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E456" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
@@ -12116,10 +12158,10 @@
         <v>956</v>
       </c>
       <c r="D457" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E457" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
@@ -12133,10 +12175,10 @@
         <v>956</v>
       </c>
       <c r="D458" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E458" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -12150,10 +12192,10 @@
         <v>956</v>
       </c>
       <c r="D459" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E459" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
@@ -12164,13 +12206,13 @@
         <v>6</v>
       </c>
       <c r="C460" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="D460" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="E460" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
@@ -12181,13 +12223,13 @@
         <v>6</v>
       </c>
       <c r="C461" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="D461" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="E461" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
@@ -12201,10 +12243,10 @@
         <v>971</v>
       </c>
       <c r="D462" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E462" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
@@ -12218,10 +12260,10 @@
         <v>971</v>
       </c>
       <c r="D463" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E463" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
@@ -12235,10 +12277,10 @@
         <v>971</v>
       </c>
       <c r="D464" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E464" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
@@ -12252,10 +12294,10 @@
         <v>971</v>
       </c>
       <c r="D465" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E465" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
@@ -12269,10 +12311,10 @@
         <v>971</v>
       </c>
       <c r="D466" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E466" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -12283,13 +12325,13 @@
         <v>6</v>
       </c>
       <c r="C467" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="D467" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="E467" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -12300,13 +12342,13 @@
         <v>6</v>
       </c>
       <c r="C468" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="D468" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="E468" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -12320,10 +12362,10 @@
         <v>986</v>
       </c>
       <c r="D469" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E469" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -12337,10 +12379,10 @@
         <v>986</v>
       </c>
       <c r="D470" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E470" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
@@ -12354,10 +12396,10 @@
         <v>986</v>
       </c>
       <c r="D471" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E471" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -12371,10 +12413,10 @@
         <v>986</v>
       </c>
       <c r="D472" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E472" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -12385,13 +12427,13 @@
         <v>6</v>
       </c>
       <c r="C473" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="D473" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="E473" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -12402,13 +12444,13 @@
         <v>6</v>
       </c>
       <c r="C474" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="D474" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="E474" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
@@ -12422,10 +12464,10 @@
         <v>999</v>
       </c>
       <c r="D475" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E475" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -12439,10 +12481,10 @@
         <v>999</v>
       </c>
       <c r="D476" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E476" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -12456,10 +12498,10 @@
         <v>999</v>
       </c>
       <c r="D477" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E477" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
@@ -12473,10 +12515,10 @@
         <v>999</v>
       </c>
       <c r="D478" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E478" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -12487,13 +12529,13 @@
         <v>6</v>
       </c>
       <c r="C479" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D479" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="E479" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
@@ -12504,13 +12546,13 @@
         <v>6</v>
       </c>
       <c r="C480" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D480" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="E480" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -12524,10 +12566,10 @@
         <v>1012</v>
       </c>
       <c r="D481" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E481" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -12541,10 +12583,10 @@
         <v>1012</v>
       </c>
       <c r="D482" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E482" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -12558,10 +12600,10 @@
         <v>1012</v>
       </c>
       <c r="D483" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E483" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -12575,10 +12617,10 @@
         <v>1012</v>
       </c>
       <c r="D484" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E484" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -12589,13 +12631,13 @@
         <v>6</v>
       </c>
       <c r="C485" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D485" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="E485" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -12606,13 +12648,13 @@
         <v>6</v>
       </c>
       <c r="C486" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D486" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="E486" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -12626,10 +12668,10 @@
         <v>1025</v>
       </c>
       <c r="D487" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E487" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -12643,10 +12685,10 @@
         <v>1025</v>
       </c>
       <c r="D488" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E488" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -12660,10 +12702,10 @@
         <v>1025</v>
       </c>
       <c r="D489" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E489" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -12677,10 +12719,10 @@
         <v>1025</v>
       </c>
       <c r="D490" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E490" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -12691,13 +12733,13 @@
         <v>6</v>
       </c>
       <c r="C491" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="D491" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="E491" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -12708,13 +12750,13 @@
         <v>6</v>
       </c>
       <c r="C492" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="D492" t="s">
-        <v>1040</v>
+        <v>1158</v>
       </c>
       <c r="E492" t="s">
-        <v>1045</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -12725,13 +12767,13 @@
         <v>6</v>
       </c>
       <c r="C493" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="D493" t="s">
-        <v>1047</v>
+        <v>1157</v>
       </c>
       <c r="E493" t="s">
-        <v>1046</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -12742,13 +12784,13 @@
         <v>6</v>
       </c>
       <c r="C494" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="D494" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="E494" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -12762,10 +12804,10 @@
         <v>1038</v>
       </c>
       <c r="D495" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E495" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -12779,10 +12821,10 @@
         <v>1038</v>
       </c>
       <c r="D496" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E496" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -12793,13 +12835,13 @@
         <v>6</v>
       </c>
       <c r="C497" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="D497" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="E497" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
@@ -12810,13 +12852,13 @@
         <v>6</v>
       </c>
       <c r="C498" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="D498" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="E498" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -12827,13 +12869,13 @@
         <v>6</v>
       </c>
       <c r="C499" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="D499" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="E499" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
@@ -12844,13 +12886,13 @@
         <v>6</v>
       </c>
       <c r="C500" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="D500" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="E500" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
@@ -12864,10 +12906,10 @@
         <v>1051</v>
       </c>
       <c r="D501" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E501" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
@@ -12881,10 +12923,10 @@
         <v>1051</v>
       </c>
       <c r="D502" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E502" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -12898,10 +12940,10 @@
         <v>1051</v>
       </c>
       <c r="D503" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E503" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -12912,13 +12954,13 @@
         <v>6</v>
       </c>
       <c r="C504" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="D504" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="E504" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -12929,13 +12971,13 @@
         <v>6</v>
       </c>
       <c r="C505" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="D505" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="E505" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
@@ -12946,13 +12988,13 @@
         <v>6</v>
       </c>
       <c r="C506" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="D506" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="E506" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -12963,13 +13005,13 @@
         <v>6</v>
       </c>
       <c r="C507" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="D507" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="E507" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -12983,10 +13025,10 @@
         <v>1066</v>
       </c>
       <c r="D508" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E508" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -13000,10 +13042,10 @@
         <v>1066</v>
       </c>
       <c r="D509" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E509" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -13014,13 +13056,13 @@
         <v>6</v>
       </c>
       <c r="C510" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="D510" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="E510" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -13031,13 +13073,13 @@
         <v>6</v>
       </c>
       <c r="C511" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="D511" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="E511" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -13048,13 +13090,13 @@
         <v>6</v>
       </c>
       <c r="C512" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="D512" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="E512" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -13065,13 +13107,13 @@
         <v>6</v>
       </c>
       <c r="C513" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="D513" t="s">
-        <v>1082</v>
+        <v>1153</v>
       </c>
       <c r="E513" t="s">
-        <v>1087</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -13082,13 +13124,13 @@
         <v>6</v>
       </c>
       <c r="C514" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="D514" t="s">
-        <v>1083</v>
+        <v>1154</v>
       </c>
       <c r="E514" t="s">
-        <v>1086</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -13099,13 +13141,13 @@
         <v>6</v>
       </c>
       <c r="C515" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="D515" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="E515" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
@@ -13116,13 +13158,13 @@
         <v>6</v>
       </c>
       <c r="C516" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D516" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="E516" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
@@ -13133,13 +13175,13 @@
         <v>6</v>
       </c>
       <c r="C517" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D517" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="E517" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
@@ -13150,13 +13192,13 @@
         <v>6</v>
       </c>
       <c r="C518" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D518" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="E518" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
@@ -13167,13 +13209,13 @@
         <v>6</v>
       </c>
       <c r="C519" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D519" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="E519" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
@@ -13184,13 +13226,13 @@
         <v>6</v>
       </c>
       <c r="C520" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D520" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="E520" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -13201,13 +13243,13 @@
         <v>6</v>
       </c>
       <c r="C521" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D521" t="s">
-        <v>1102</v>
+        <v>1152</v>
       </c>
       <c r="E521" t="s">
-        <v>1104</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -13218,13 +13260,13 @@
         <v>6</v>
       </c>
       <c r="C522" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D522" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="E522" t="s">
-        <v>1105</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -13235,13 +13277,13 @@
         <v>6</v>
       </c>
       <c r="C523" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="D523" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="E523" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
@@ -13252,13 +13294,13 @@
         <v>6</v>
       </c>
       <c r="C524" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="D524" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="E524" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
@@ -13269,13 +13311,13 @@
         <v>6</v>
       </c>
       <c r="C525" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="D525" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="E525" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
@@ -13286,13 +13328,13 @@
         <v>6</v>
       </c>
       <c r="C526" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="D526" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="E526" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
@@ -13303,13 +13345,13 @@
         <v>6</v>
       </c>
       <c r="C527" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="D527" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="E527" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
@@ -13320,13 +13362,13 @@
         <v>6</v>
       </c>
       <c r="C528" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="D528" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="E528" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
@@ -13337,13 +13379,13 @@
         <v>6</v>
       </c>
       <c r="C529" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="D529" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
       <c r="E529" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
@@ -13354,13 +13396,13 @@
         <v>6</v>
       </c>
       <c r="C530" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D530" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="E530" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
@@ -13371,13 +13413,13 @@
         <v>6</v>
       </c>
       <c r="C531" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D531" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="E531" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
@@ -13388,13 +13430,13 @@
         <v>6</v>
       </c>
       <c r="C532" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D532" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="E532" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
@@ -13405,13 +13447,13 @@
         <v>6</v>
       </c>
       <c r="C533" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D533" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="E533" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
@@ -13422,13 +13464,13 @@
         <v>6</v>
       </c>
       <c r="C534" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D534" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="E534" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
@@ -13439,13 +13481,13 @@
         <v>6</v>
       </c>
       <c r="C535" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D535" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="E535" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
@@ -13456,13 +13498,13 @@
         <v>6</v>
       </c>
       <c r="C536" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D536" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="E536" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
@@ -13473,13 +13515,13 @@
         <v>6</v>
       </c>
       <c r="C537" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="D537" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="E537" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
@@ -13490,13 +13532,13 @@
         <v>6</v>
       </c>
       <c r="C538" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="D538" t="s">
-        <v>1146</v>
+        <v>1123</v>
       </c>
       <c r="E538" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
@@ -13507,13 +13549,13 @@
         <v>6</v>
       </c>
       <c r="C539" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="D539" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="E539" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -13524,13 +13566,13 @@
         <v>6</v>
       </c>
       <c r="C540" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="D540" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="E540" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
@@ -13541,13 +13583,13 @@
         <v>6</v>
       </c>
       <c r="C541" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="D541" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="E541" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
@@ -13558,13 +13600,13 @@
         <v>6</v>
       </c>
       <c r="C542" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="D542" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="E542" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
@@ -13575,13 +13617,13 @@
         <v>6</v>
       </c>
       <c r="C543" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="D543" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="E543" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
@@ -13591,69 +13633,116 @@
       <c r="B544" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C544" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>5</v>
       </c>
       <c r="B545" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C545" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>5</v>
       </c>
       <c r="B546" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C546" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>5</v>
       </c>
       <c r="B547" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C547" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>5</v>
       </c>
       <c r="B548" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C548" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>5</v>
       </c>
       <c r="B549" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C549" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>5</v>
       </c>
       <c r="B550" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A551" t="s">
-        <v>5</v>
-      </c>
-      <c r="B551" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A552" t="s">
-        <v>5</v>
-      </c>
-      <c r="B552" t="s">
-        <v>6</v>
+      <c r="C550" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>

--- a/faza1_tabela.xlsx
+++ b/faza1_tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duja0807\Desktop\master\natural_project\natural-language-processing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE910CFD-98CC-4BF3-BAC6-C8164933F9FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04296586-7748-44D7-B2B1-96D882DBFF7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14310" yWindow="-105" windowWidth="28995" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1565">
   <si>
     <t>ProgrammingLanguageName</t>
   </si>
@@ -4637,6 +4637,84 @@
   </si>
   <si>
     <t xml:space="preserve">  Brise sve SEO linkove za neki indexirani objekat  </t>
+  </si>
+  <si>
+    <t>40_addCollector</t>
+  </si>
+  <si>
+    <t>40_addPath</t>
+  </si>
+  <si>
+    <t>40_attachCallback</t>
+  </si>
+  <si>
+    <t>40_check_credentials</t>
+  </si>
+  <si>
+    <t>40_entityToString</t>
+  </si>
+  <si>
+    <t>40_extractEnumFromArray</t>
+  </si>
+  <si>
+    <t>40_findInternal</t>
+  </si>
+  <si>
+    <t>40_findValueTypeName</t>
+  </si>
+  <si>
+    <t>40_getAllEnumTags</t>
+  </si>
+  <si>
+    <t>40_getDynamicFunc</t>
+  </si>
+  <si>
+    <t>40_getEnumByID</t>
+  </si>
+  <si>
+    <t>40_getEnumName</t>
+  </si>
+  <si>
+    <t>40_getThemeConfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dodaje zadati sakupljac u prioritetni red uz  dodatne provere i bacanje izuzetaka  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dodaje putanju u predefinisani niz koja ce  moci da se koristi nakon upisa u fajl  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Postavlja callback funkciju u prioritetni red  u zavisnosti od zadatog prioriteta ako nije podrazumevani  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Proverava kredencijale korisnickog imena i lozinke  i inicijalizuje i postavlja sesiju za dalje koriscenje  u kukije  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pretvara dati objekat u niz stringova razdvojenih  postavljenim separatorom  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pronalazi ime za enum u nizu vrednosti  za zadati parametar u zavisnosti od korisnika   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pronalazi listu unutrasnjih klasa definisanih unutar  prosledjene okruzujuce klase  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ova funkcija dohvata tip po zadataoj  vrednosti enum ako je ona validno definisana  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pronalazi sve tagove za odredjeni enum po njegovom id  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pronalazi dinamicki definisane funkcije i smesta  ih u listu za dalju obradu u klasama  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dohvata ime enum za zadati ID polja koje mu  pripada ukoliko je definisano  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Vraca ime enum tipa za zadatu vrednost proizvoda  kao jedinog parametra funkcije   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Uzima podesavanja za odredjenu temu i uz odredjene provere  pronalazi putanju do trazenog fajla  </t>
   </si>
 </sst>
 </file>
@@ -5504,8 +5582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D351" sqref="D351"/>
+    <sheetView tabSelected="1" topLeftCell="C541" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E359" sqref="E359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11474,6 +11552,12 @@
       <c r="B351" t="s">
         <v>6</v>
       </c>
+      <c r="D351" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1552</v>
+      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
@@ -11482,6 +11566,12 @@
       <c r="B352" t="s">
         <v>6</v>
       </c>
+      <c r="D352" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1553</v>
+      </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
@@ -11490,6 +11580,12 @@
       <c r="B353" t="s">
         <v>6</v>
       </c>
+      <c r="D353" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1554</v>
+      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
@@ -11498,6 +11594,12 @@
       <c r="B354" t="s">
         <v>6</v>
       </c>
+      <c r="D354" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1555</v>
+      </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
@@ -11506,6 +11608,12 @@
       <c r="B355" t="s">
         <v>6</v>
       </c>
+      <c r="D355" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1556</v>
+      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
@@ -11514,6 +11622,12 @@
       <c r="B356" t="s">
         <v>6</v>
       </c>
+      <c r="D356" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1557</v>
+      </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
@@ -11522,6 +11636,12 @@
       <c r="B357" t="s">
         <v>6</v>
       </c>
+      <c r="D357" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1558</v>
+      </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
@@ -11530,6 +11650,12 @@
       <c r="B358" t="s">
         <v>6</v>
       </c>
+      <c r="D358" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1559</v>
+      </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
@@ -11538,6 +11664,12 @@
       <c r="B359" t="s">
         <v>6</v>
       </c>
+      <c r="D359" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1560</v>
+      </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
@@ -11546,6 +11678,12 @@
       <c r="B360" t="s">
         <v>6</v>
       </c>
+      <c r="D360" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1561</v>
+      </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
@@ -11554,6 +11692,12 @@
       <c r="B361" t="s">
         <v>6</v>
       </c>
+      <c r="D361" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1562</v>
+      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
@@ -11562,6 +11706,12 @@
       <c r="B362" t="s">
         <v>6</v>
       </c>
+      <c r="D362" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E362" t="s">
+        <v>1563</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
@@ -11569,6 +11719,12 @@
       </c>
       <c r="B363" t="s">
         <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E363" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">

--- a/faza1_tabela.xlsx
+++ b/faza1_tabela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duja0807\Desktop\master\natural_project\natural-language-processing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F348D24-FFCD-4823-8A47-DE946A681913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994148C6-5E3B-4345-B525-172412985CD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="1597">
   <si>
     <t>ProgrammingLanguageName</t>
   </si>
@@ -4718,6 +4718,99 @@
   </si>
   <si>
     <t>Proverava da je sortString dobro formatiran i dodaje uslov   za sortiranje definisano u query   Vraca i poruku http strani o nekorektnom formatu za sortiranje stringova</t>
+  </si>
+  <si>
+    <t>Fajlovi sa pomocnim klasama i enumeracijama.</t>
+  </si>
+  <si>
+    <t>Pomocne klase za obradu parametara i kordiranje urla.</t>
+  </si>
+  <si>
+    <t>Funkcije za slanje i obradu api poziva uz koriscenje kolacica</t>
+  </si>
+  <si>
+    <t>Util klase za obradu nizova.</t>
+  </si>
+  <si>
+    <t>Razne funkcije za obradu datuma.</t>
+  </si>
+  <si>
+    <t>Funkcije za dodatnu obradu html elemenata.</t>
+  </si>
+  <si>
+    <t>Metode za obradu nizova razlicitih objekata.</t>
+  </si>
+  <si>
+    <t>Util funkcije za obradu stringova.</t>
+  </si>
+  <si>
+    <t>Klase za rad sa fajlovima.</t>
+  </si>
+  <si>
+    <t>Operacije nad clipboardom.</t>
+  </si>
+  <si>
+    <t>Funkcije za konverziju tipova fajlova.</t>
+  </si>
+  <si>
+    <t>Metode za konvertovanje json fajlova.</t>
+  </si>
+  <si>
+    <t>Funkcije za generisanje nasumicnih vrednosti.</t>
+  </si>
+  <si>
+    <t>Klase za obradu grafova.</t>
+  </si>
+  <si>
+    <t>Optimizacija nelder mead algoritmom.</t>
+  </si>
+  <si>
+    <t>Funkcije za brojanje jedinstvenih elemenata koriscenjem skupa.</t>
+  </si>
+  <si>
+    <t>Obrada podataka i tabela u bazi podataka.</t>
+  </si>
+  <si>
+    <t>Metode za deserijalizaciju jsona.</t>
+  </si>
+  <si>
+    <t>Funkcije za obradu i parsiranje stringa.</t>
+  </si>
+  <si>
+    <t>Klase za obradjivanje niti i procesa.</t>
+  </si>
+  <si>
+    <t>Pomocne funkcije za obradu stringova regularnim izrazima.</t>
+  </si>
+  <si>
+    <t>Funkcije za pravljenje http odgovora.</t>
+  </si>
+  <si>
+    <t>Pomocne metode za validaciju stringa.</t>
+  </si>
+  <si>
+    <t>Metode za preslikavanje entiteta u html.</t>
+  </si>
+  <si>
+    <t>Funkcije za operacije nad fajlovima.</t>
+  </si>
+  <si>
+    <t>Pomocne funkcije za obradu i sortiranje nizova.</t>
+  </si>
+  <si>
+    <t>Fajlovi za obradu stringova naprednijim metodama.</t>
+  </si>
+  <si>
+    <t>Funkcije za obradu htmla.</t>
+  </si>
+  <si>
+    <t>Pomocne klase za obradu tekstova iz fajlova.</t>
+  </si>
+  <si>
+    <t>Klase za eknkriptovanje raznim algoritmima.</t>
+  </si>
+  <si>
+    <t>Pomocne metode za matematicke obrade nizova i matrica.</t>
   </si>
 </sst>
 </file>
@@ -5585,8 +5678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C327" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D351" sqref="D351:D550"/>
+    <sheetView tabSelected="1" topLeftCell="B524" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C542" sqref="C542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11555,6 +11648,9 @@
       <c r="B351" t="s">
         <v>6</v>
       </c>
+      <c r="C351" t="s">
+        <v>1566</v>
+      </c>
       <c r="D351" t="s">
         <v>1329</v>
       </c>
@@ -11569,6 +11665,9 @@
       <c r="B352" t="s">
         <v>6</v>
       </c>
+      <c r="C352" t="s">
+        <v>1566</v>
+      </c>
       <c r="D352" t="s">
         <v>1330</v>
       </c>
@@ -11583,6 +11682,9 @@
       <c r="B353" t="s">
         <v>6</v>
       </c>
+      <c r="C353" t="s">
+        <v>1566</v>
+      </c>
       <c r="D353" t="s">
         <v>1331</v>
       </c>
@@ -11597,6 +11699,9 @@
       <c r="B354" t="s">
         <v>6</v>
       </c>
+      <c r="C354" t="s">
+        <v>1566</v>
+      </c>
       <c r="D354" t="s">
         <v>1332</v>
       </c>
@@ -11611,6 +11716,9 @@
       <c r="B355" t="s">
         <v>6</v>
       </c>
+      <c r="C355" t="s">
+        <v>1566</v>
+      </c>
       <c r="D355" t="s">
         <v>1333</v>
       </c>
@@ -11625,6 +11733,9 @@
       <c r="B356" t="s">
         <v>6</v>
       </c>
+      <c r="C356" t="s">
+        <v>1566</v>
+      </c>
       <c r="D356" t="s">
         <v>1334</v>
       </c>
@@ -11639,6 +11750,9 @@
       <c r="B357" t="s">
         <v>6</v>
       </c>
+      <c r="C357" t="s">
+        <v>1566</v>
+      </c>
       <c r="D357" t="s">
         <v>1335</v>
       </c>
@@ -11653,6 +11767,9 @@
       <c r="B358" t="s">
         <v>6</v>
       </c>
+      <c r="C358" t="s">
+        <v>1566</v>
+      </c>
       <c r="D358" t="s">
         <v>1336</v>
       </c>
@@ -11667,6 +11784,9 @@
       <c r="B359" t="s">
         <v>6</v>
       </c>
+      <c r="C359" t="s">
+        <v>1566</v>
+      </c>
       <c r="D359" t="s">
         <v>1337</v>
       </c>
@@ -11681,6 +11801,9 @@
       <c r="B360" t="s">
         <v>6</v>
       </c>
+      <c r="C360" t="s">
+        <v>1566</v>
+      </c>
       <c r="D360" t="s">
         <v>1338</v>
       </c>
@@ -11695,6 +11818,9 @@
       <c r="B361" t="s">
         <v>6</v>
       </c>
+      <c r="C361" t="s">
+        <v>1566</v>
+      </c>
       <c r="D361" t="s">
         <v>1339</v>
       </c>
@@ -11709,6 +11835,9 @@
       <c r="B362" t="s">
         <v>6</v>
       </c>
+      <c r="C362" t="s">
+        <v>1566</v>
+      </c>
       <c r="D362" t="s">
         <v>1340</v>
       </c>
@@ -11723,6 +11852,9 @@
       <c r="B363" t="s">
         <v>6</v>
       </c>
+      <c r="C363" t="s">
+        <v>1566</v>
+      </c>
       <c r="D363" t="s">
         <v>1341</v>
       </c>
@@ -11737,6 +11869,9 @@
       <c r="B364" t="s">
         <v>6</v>
       </c>
+      <c r="C364" t="s">
+        <v>1567</v>
+      </c>
       <c r="D364" t="s">
         <v>1142</v>
       </c>
@@ -11751,6 +11886,9 @@
       <c r="B365" t="s">
         <v>6</v>
       </c>
+      <c r="C365" t="s">
+        <v>1567</v>
+      </c>
       <c r="D365" t="s">
         <v>1143</v>
       </c>
@@ -11765,6 +11903,9 @@
       <c r="B366" t="s">
         <v>6</v>
       </c>
+      <c r="C366" t="s">
+        <v>1567</v>
+      </c>
       <c r="D366" t="s">
         <v>1144</v>
       </c>
@@ -11779,6 +11920,9 @@
       <c r="B367" t="s">
         <v>6</v>
       </c>
+      <c r="C367" t="s">
+        <v>1567</v>
+      </c>
       <c r="D367" t="s">
         <v>1145</v>
       </c>
@@ -11793,6 +11937,9 @@
       <c r="B368" t="s">
         <v>6</v>
       </c>
+      <c r="C368" t="s">
+        <v>1567</v>
+      </c>
       <c r="D368" t="s">
         <v>1146</v>
       </c>
@@ -11807,6 +11954,9 @@
       <c r="B369" t="s">
         <v>6</v>
       </c>
+      <c r="C369" t="s">
+        <v>1567</v>
+      </c>
       <c r="D369" t="s">
         <v>1147</v>
       </c>
@@ -11821,6 +11971,9 @@
       <c r="B370" t="s">
         <v>6</v>
       </c>
+      <c r="C370" t="s">
+        <v>1567</v>
+      </c>
       <c r="D370" t="s">
         <v>1148</v>
       </c>
@@ -11835,6 +11988,9 @@
       <c r="B371" t="s">
         <v>6</v>
       </c>
+      <c r="C371" t="s">
+        <v>1568</v>
+      </c>
       <c r="D371" t="s">
         <v>1149</v>
       </c>
@@ -11849,6 +12005,9 @@
       <c r="B372" t="s">
         <v>6</v>
       </c>
+      <c r="C372" t="s">
+        <v>1568</v>
+      </c>
       <c r="D372" t="s">
         <v>1150</v>
       </c>
@@ -11863,6 +12022,9 @@
       <c r="B373" t="s">
         <v>6</v>
       </c>
+      <c r="C373" t="s">
+        <v>1568</v>
+      </c>
       <c r="D373" t="s">
         <v>1151</v>
       </c>
@@ -11877,6 +12039,9 @@
       <c r="B374" t="s">
         <v>6</v>
       </c>
+      <c r="C374" t="s">
+        <v>1568</v>
+      </c>
       <c r="D374" t="s">
         <v>1152</v>
       </c>
@@ -11891,6 +12056,9 @@
       <c r="B375" t="s">
         <v>6</v>
       </c>
+      <c r="C375" t="s">
+        <v>1568</v>
+      </c>
       <c r="D375" t="s">
         <v>1153</v>
       </c>
@@ -11905,6 +12073,9 @@
       <c r="B376" t="s">
         <v>6</v>
       </c>
+      <c r="C376" t="s">
+        <v>1568</v>
+      </c>
       <c r="D376" t="s">
         <v>1154</v>
       </c>
@@ -11919,6 +12090,9 @@
       <c r="B377" t="s">
         <v>6</v>
       </c>
+      <c r="C377" t="s">
+        <v>1568</v>
+      </c>
       <c r="D377" t="s">
         <v>1155</v>
       </c>
@@ -11933,6 +12107,9 @@
       <c r="B378" t="s">
         <v>6</v>
       </c>
+      <c r="C378" t="s">
+        <v>1569</v>
+      </c>
       <c r="D378" t="s">
         <v>1156</v>
       </c>
@@ -11947,6 +12124,9 @@
       <c r="B379" t="s">
         <v>6</v>
       </c>
+      <c r="C379" t="s">
+        <v>1569</v>
+      </c>
       <c r="D379" t="s">
         <v>1157</v>
       </c>
@@ -11961,6 +12141,9 @@
       <c r="B380" t="s">
         <v>6</v>
       </c>
+      <c r="C380" t="s">
+        <v>1569</v>
+      </c>
       <c r="D380" t="s">
         <v>1158</v>
       </c>
@@ -11975,6 +12158,9 @@
       <c r="B381" t="s">
         <v>6</v>
       </c>
+      <c r="C381" t="s">
+        <v>1569</v>
+      </c>
       <c r="D381" t="s">
         <v>1159</v>
       </c>
@@ -11989,6 +12175,9 @@
       <c r="B382" t="s">
         <v>6</v>
       </c>
+      <c r="C382" t="s">
+        <v>1569</v>
+      </c>
       <c r="D382" t="s">
         <v>1160</v>
       </c>
@@ -12003,6 +12192,9 @@
       <c r="B383" t="s">
         <v>6</v>
       </c>
+      <c r="C383" t="s">
+        <v>1569</v>
+      </c>
       <c r="D383" t="s">
         <v>1161</v>
       </c>
@@ -12017,6 +12209,9 @@
       <c r="B384" t="s">
         <v>6</v>
       </c>
+      <c r="C384" t="s">
+        <v>1570</v>
+      </c>
       <c r="D384" t="s">
         <v>1162</v>
       </c>
@@ -12031,6 +12226,9 @@
       <c r="B385" t="s">
         <v>6</v>
       </c>
+      <c r="C385" t="s">
+        <v>1570</v>
+      </c>
       <c r="D385" t="s">
         <v>1163</v>
       </c>
@@ -12045,6 +12243,9 @@
       <c r="B386" t="s">
         <v>6</v>
       </c>
+      <c r="C386" t="s">
+        <v>1570</v>
+      </c>
       <c r="D386" t="s">
         <v>1164</v>
       </c>
@@ -12059,6 +12260,9 @@
       <c r="B387" t="s">
         <v>6</v>
       </c>
+      <c r="C387" t="s">
+        <v>1570</v>
+      </c>
       <c r="D387" t="s">
         <v>1165</v>
       </c>
@@ -12073,6 +12277,9 @@
       <c r="B388" t="s">
         <v>6</v>
       </c>
+      <c r="C388" t="s">
+        <v>1570</v>
+      </c>
       <c r="D388" t="s">
         <v>1166</v>
       </c>
@@ -12087,6 +12294,9 @@
       <c r="B389" t="s">
         <v>6</v>
       </c>
+      <c r="C389" t="s">
+        <v>1570</v>
+      </c>
       <c r="D389" t="s">
         <v>1167</v>
       </c>
@@ -12101,6 +12311,9 @@
       <c r="B390" t="s">
         <v>6</v>
       </c>
+      <c r="C390" t="s">
+        <v>1571</v>
+      </c>
       <c r="D390" t="s">
         <v>1168</v>
       </c>
@@ -12115,6 +12328,9 @@
       <c r="B391" t="s">
         <v>6</v>
       </c>
+      <c r="C391" t="s">
+        <v>1571</v>
+      </c>
       <c r="D391" t="s">
         <v>1169</v>
       </c>
@@ -12129,6 +12345,9 @@
       <c r="B392" t="s">
         <v>6</v>
       </c>
+      <c r="C392" t="s">
+        <v>1571</v>
+      </c>
       <c r="D392" t="s">
         <v>1170</v>
       </c>
@@ -12143,6 +12362,9 @@
       <c r="B393" t="s">
         <v>6</v>
       </c>
+      <c r="C393" t="s">
+        <v>1571</v>
+      </c>
       <c r="D393" t="s">
         <v>1171</v>
       </c>
@@ -12157,6 +12379,9 @@
       <c r="B394" t="s">
         <v>6</v>
       </c>
+      <c r="C394" t="s">
+        <v>1571</v>
+      </c>
       <c r="D394" t="s">
         <v>1172</v>
       </c>
@@ -12171,6 +12396,9 @@
       <c r="B395" t="s">
         <v>6</v>
       </c>
+      <c r="C395" t="s">
+        <v>1571</v>
+      </c>
       <c r="D395" t="s">
         <v>1173</v>
       </c>
@@ -12185,6 +12413,9 @@
       <c r="B396" t="s">
         <v>6</v>
       </c>
+      <c r="C396" t="s">
+        <v>1572</v>
+      </c>
       <c r="D396" t="s">
         <v>1174</v>
       </c>
@@ -12199,6 +12430,9 @@
       <c r="B397" t="s">
         <v>6</v>
       </c>
+      <c r="C397" t="s">
+        <v>1572</v>
+      </c>
       <c r="D397" t="s">
         <v>1175</v>
       </c>
@@ -12213,6 +12447,9 @@
       <c r="B398" t="s">
         <v>6</v>
       </c>
+      <c r="C398" t="s">
+        <v>1572</v>
+      </c>
       <c r="D398" t="s">
         <v>1176</v>
       </c>
@@ -12227,6 +12464,9 @@
       <c r="B399" t="s">
         <v>6</v>
       </c>
+      <c r="C399" t="s">
+        <v>1572</v>
+      </c>
       <c r="D399" t="s">
         <v>1177</v>
       </c>
@@ -12241,6 +12481,9 @@
       <c r="B400" t="s">
         <v>6</v>
       </c>
+      <c r="C400" t="s">
+        <v>1572</v>
+      </c>
       <c r="D400" t="s">
         <v>1178</v>
       </c>
@@ -12255,6 +12498,9 @@
       <c r="B401" t="s">
         <v>6</v>
       </c>
+      <c r="C401" t="s">
+        <v>1572</v>
+      </c>
       <c r="D401" t="s">
         <v>1179</v>
       </c>
@@ -12269,6 +12515,9 @@
       <c r="B402" t="s">
         <v>6</v>
       </c>
+      <c r="C402" t="s">
+        <v>1573</v>
+      </c>
       <c r="D402" t="s">
         <v>1180</v>
       </c>
@@ -12283,6 +12532,9 @@
       <c r="B403" t="s">
         <v>6</v>
       </c>
+      <c r="C403" t="s">
+        <v>1573</v>
+      </c>
       <c r="D403" t="s">
         <v>1181</v>
       </c>
@@ -12297,6 +12549,9 @@
       <c r="B404" t="s">
         <v>6</v>
       </c>
+      <c r="C404" t="s">
+        <v>1573</v>
+      </c>
       <c r="D404" t="s">
         <v>1182</v>
       </c>
@@ -12311,6 +12566,9 @@
       <c r="B405" t="s">
         <v>6</v>
       </c>
+      <c r="C405" t="s">
+        <v>1573</v>
+      </c>
       <c r="D405" t="s">
         <v>1183</v>
       </c>
@@ -12325,6 +12583,9 @@
       <c r="B406" t="s">
         <v>6</v>
       </c>
+      <c r="C406" t="s">
+        <v>1573</v>
+      </c>
       <c r="D406" t="s">
         <v>1184</v>
       </c>
@@ -12339,6 +12600,9 @@
       <c r="B407" t="s">
         <v>6</v>
       </c>
+      <c r="C407" t="s">
+        <v>1573</v>
+      </c>
       <c r="D407" t="s">
         <v>1185</v>
       </c>
@@ -12353,6 +12617,9 @@
       <c r="B408" t="s">
         <v>6</v>
       </c>
+      <c r="C408" t="s">
+        <v>1574</v>
+      </c>
       <c r="D408" t="s">
         <v>1186</v>
       </c>
@@ -12367,6 +12634,9 @@
       <c r="B409" t="s">
         <v>6</v>
       </c>
+      <c r="C409" t="s">
+        <v>1574</v>
+      </c>
       <c r="D409" t="s">
         <v>1187</v>
       </c>
@@ -12381,6 +12651,9 @@
       <c r="B410" t="s">
         <v>6</v>
       </c>
+      <c r="C410" t="s">
+        <v>1574</v>
+      </c>
       <c r="D410" t="s">
         <v>1188</v>
       </c>
@@ -12395,6 +12668,9 @@
       <c r="B411" t="s">
         <v>6</v>
       </c>
+      <c r="C411" t="s">
+        <v>1574</v>
+      </c>
       <c r="D411" t="s">
         <v>1189</v>
       </c>
@@ -12409,6 +12685,9 @@
       <c r="B412" t="s">
         <v>6</v>
       </c>
+      <c r="C412" t="s">
+        <v>1574</v>
+      </c>
       <c r="D412" t="s">
         <v>1190</v>
       </c>
@@ -12423,6 +12702,9 @@
       <c r="B413" t="s">
         <v>6</v>
       </c>
+      <c r="C413" t="s">
+        <v>1574</v>
+      </c>
       <c r="D413" t="s">
         <v>1191</v>
       </c>
@@ -12437,6 +12719,9 @@
       <c r="B414" t="s">
         <v>6</v>
       </c>
+      <c r="C414" t="s">
+        <v>1575</v>
+      </c>
       <c r="D414" t="s">
         <v>1192</v>
       </c>
@@ -12451,6 +12736,9 @@
       <c r="B415" t="s">
         <v>6</v>
       </c>
+      <c r="C415" t="s">
+        <v>1575</v>
+      </c>
       <c r="D415" t="s">
         <v>1193</v>
       </c>
@@ -12465,6 +12753,9 @@
       <c r="B416" t="s">
         <v>6</v>
       </c>
+      <c r="C416" t="s">
+        <v>1575</v>
+      </c>
       <c r="D416" t="s">
         <v>1194</v>
       </c>
@@ -12479,6 +12770,9 @@
       <c r="B417" t="s">
         <v>6</v>
       </c>
+      <c r="C417" t="s">
+        <v>1575</v>
+      </c>
       <c r="D417" t="s">
         <v>1195</v>
       </c>
@@ -12493,6 +12787,9 @@
       <c r="B418" t="s">
         <v>6</v>
       </c>
+      <c r="C418" t="s">
+        <v>1575</v>
+      </c>
       <c r="D418" t="s">
         <v>1196</v>
       </c>
@@ -12507,6 +12804,9 @@
       <c r="B419" t="s">
         <v>6</v>
       </c>
+      <c r="C419" t="s">
+        <v>1575</v>
+      </c>
       <c r="D419" t="s">
         <v>1197</v>
       </c>
@@ -12521,6 +12821,9 @@
       <c r="B420" t="s">
         <v>6</v>
       </c>
+      <c r="C420" t="s">
+        <v>1576</v>
+      </c>
       <c r="D420" t="s">
         <v>1198</v>
       </c>
@@ -12535,6 +12838,9 @@
       <c r="B421" t="s">
         <v>6</v>
       </c>
+      <c r="C421" t="s">
+        <v>1576</v>
+      </c>
       <c r="D421" t="s">
         <v>1199</v>
       </c>
@@ -12549,6 +12855,9 @@
       <c r="B422" t="s">
         <v>6</v>
       </c>
+      <c r="C422" t="s">
+        <v>1576</v>
+      </c>
       <c r="D422" t="s">
         <v>1200</v>
       </c>
@@ -12563,6 +12872,9 @@
       <c r="B423" t="s">
         <v>6</v>
       </c>
+      <c r="C423" t="s">
+        <v>1576</v>
+      </c>
       <c r="D423" t="s">
         <v>1201</v>
       </c>
@@ -12577,6 +12889,9 @@
       <c r="B424" t="s">
         <v>6</v>
       </c>
+      <c r="C424" t="s">
+        <v>1576</v>
+      </c>
       <c r="D424" t="s">
         <v>1202</v>
       </c>
@@ -12591,6 +12906,9 @@
       <c r="B425" t="s">
         <v>6</v>
       </c>
+      <c r="C425" t="s">
+        <v>1577</v>
+      </c>
       <c r="D425" t="s">
         <v>1203</v>
       </c>
@@ -12605,6 +12923,9 @@
       <c r="B426" t="s">
         <v>6</v>
       </c>
+      <c r="C426" t="s">
+        <v>1577</v>
+      </c>
       <c r="D426" t="s">
         <v>1204</v>
       </c>
@@ -12619,6 +12940,9 @@
       <c r="B427" t="s">
         <v>6</v>
       </c>
+      <c r="C427" t="s">
+        <v>1577</v>
+      </c>
       <c r="D427" t="s">
         <v>1205</v>
       </c>
@@ -12633,6 +12957,9 @@
       <c r="B428" t="s">
         <v>6</v>
       </c>
+      <c r="C428" t="s">
+        <v>1577</v>
+      </c>
       <c r="D428" t="s">
         <v>1206</v>
       </c>
@@ -12647,6 +12974,9 @@
       <c r="B429" t="s">
         <v>6</v>
       </c>
+      <c r="C429" t="s">
+        <v>1577</v>
+      </c>
       <c r="D429" t="s">
         <v>1207</v>
       </c>
@@ -12661,6 +12991,9 @@
       <c r="B430" t="s">
         <v>6</v>
       </c>
+      <c r="C430" t="s">
+        <v>1577</v>
+      </c>
       <c r="D430" t="s">
         <v>1208</v>
       </c>
@@ -12675,6 +13008,9 @@
       <c r="B431" t="s">
         <v>6</v>
       </c>
+      <c r="C431" t="s">
+        <v>1578</v>
+      </c>
       <c r="D431" t="s">
         <v>1209</v>
       </c>
@@ -12689,6 +13025,9 @@
       <c r="B432" t="s">
         <v>6</v>
       </c>
+      <c r="C432" t="s">
+        <v>1578</v>
+      </c>
       <c r="D432" t="s">
         <v>1210</v>
       </c>
@@ -12703,6 +13042,9 @@
       <c r="B433" t="s">
         <v>6</v>
       </c>
+      <c r="C433" t="s">
+        <v>1578</v>
+      </c>
       <c r="D433" t="s">
         <v>1211</v>
       </c>
@@ -12717,6 +13059,9 @@
       <c r="B434" t="s">
         <v>6</v>
       </c>
+      <c r="C434" t="s">
+        <v>1578</v>
+      </c>
       <c r="D434" t="s">
         <v>1212</v>
       </c>
@@ -12731,6 +13076,9 @@
       <c r="B435" t="s">
         <v>6</v>
       </c>
+      <c r="C435" t="s">
+        <v>1578</v>
+      </c>
       <c r="D435" t="s">
         <v>1213</v>
       </c>
@@ -12745,6 +13093,9 @@
       <c r="B436" t="s">
         <v>6</v>
       </c>
+      <c r="C436" t="s">
+        <v>1578</v>
+      </c>
       <c r="D436" t="s">
         <v>1214</v>
       </c>
@@ -12759,6 +13110,9 @@
       <c r="B437" t="s">
         <v>6</v>
       </c>
+      <c r="C437" t="s">
+        <v>1578</v>
+      </c>
       <c r="D437" t="s">
         <v>1215</v>
       </c>
@@ -12773,6 +13127,9 @@
       <c r="B438" t="s">
         <v>6</v>
       </c>
+      <c r="C438" t="s">
+        <v>1579</v>
+      </c>
       <c r="D438" t="s">
         <v>1216</v>
       </c>
@@ -12787,6 +13144,9 @@
       <c r="B439" t="s">
         <v>6</v>
       </c>
+      <c r="C439" t="s">
+        <v>1579</v>
+      </c>
       <c r="D439" t="s">
         <v>1217</v>
       </c>
@@ -12801,6 +13161,9 @@
       <c r="B440" t="s">
         <v>6</v>
       </c>
+      <c r="C440" t="s">
+        <v>1579</v>
+      </c>
       <c r="D440" t="s">
         <v>1218</v>
       </c>
@@ -12815,6 +13178,9 @@
       <c r="B441" t="s">
         <v>6</v>
       </c>
+      <c r="C441" t="s">
+        <v>1579</v>
+      </c>
       <c r="D441" t="s">
         <v>1219</v>
       </c>
@@ -12829,6 +13195,9 @@
       <c r="B442" t="s">
         <v>6</v>
       </c>
+      <c r="C442" t="s">
+        <v>1579</v>
+      </c>
       <c r="D442" t="s">
         <v>1220</v>
       </c>
@@ -12843,6 +13212,9 @@
       <c r="B443" t="s">
         <v>6</v>
       </c>
+      <c r="C443" t="s">
+        <v>1579</v>
+      </c>
       <c r="D443" t="s">
         <v>1221</v>
       </c>
@@ -12857,6 +13229,9 @@
       <c r="B444" t="s">
         <v>6</v>
       </c>
+      <c r="C444" t="s">
+        <v>1579</v>
+      </c>
       <c r="D444" t="s">
         <v>1222</v>
       </c>
@@ -12871,6 +13246,9 @@
       <c r="B445" t="s">
         <v>6</v>
       </c>
+      <c r="C445" t="s">
+        <v>1580</v>
+      </c>
       <c r="D445" t="s">
         <v>1223</v>
       </c>
@@ -12885,6 +13263,9 @@
       <c r="B446" t="s">
         <v>6</v>
       </c>
+      <c r="C446" t="s">
+        <v>1580</v>
+      </c>
       <c r="D446" t="s">
         <v>1224</v>
       </c>
@@ -12899,6 +13280,9 @@
       <c r="B447" t="s">
         <v>6</v>
       </c>
+      <c r="C447" t="s">
+        <v>1580</v>
+      </c>
       <c r="D447" t="s">
         <v>1225</v>
       </c>
@@ -12913,6 +13297,9 @@
       <c r="B448" t="s">
         <v>6</v>
       </c>
+      <c r="C448" t="s">
+        <v>1580</v>
+      </c>
       <c r="D448" t="s">
         <v>1226</v>
       </c>
@@ -12927,6 +13314,9 @@
       <c r="B449" t="s">
         <v>6</v>
       </c>
+      <c r="C449" t="s">
+        <v>1580</v>
+      </c>
       <c r="D449" t="s">
         <v>1227</v>
       </c>
@@ -12941,6 +13331,9 @@
       <c r="B450" t="s">
         <v>6</v>
       </c>
+      <c r="C450" t="s">
+        <v>1580</v>
+      </c>
       <c r="D450" t="s">
         <v>1228</v>
       </c>
@@ -12955,6 +13348,9 @@
       <c r="B451" t="s">
         <v>6</v>
       </c>
+      <c r="C451" t="s">
+        <v>1580</v>
+      </c>
       <c r="D451" t="s">
         <v>1229</v>
       </c>
@@ -12969,6 +13365,9 @@
       <c r="B452" t="s">
         <v>6</v>
       </c>
+      <c r="C452" t="s">
+        <v>1581</v>
+      </c>
       <c r="D452" t="s">
         <v>1230</v>
       </c>
@@ -12983,6 +13382,9 @@
       <c r="B453" t="s">
         <v>6</v>
       </c>
+      <c r="C453" t="s">
+        <v>1581</v>
+      </c>
       <c r="D453" t="s">
         <v>1231</v>
       </c>
@@ -12997,6 +13399,9 @@
       <c r="B454" t="s">
         <v>6</v>
       </c>
+      <c r="C454" t="s">
+        <v>1581</v>
+      </c>
       <c r="D454" t="s">
         <v>1232</v>
       </c>
@@ -13011,6 +13416,9 @@
       <c r="B455" t="s">
         <v>6</v>
       </c>
+      <c r="C455" t="s">
+        <v>1581</v>
+      </c>
       <c r="D455" t="s">
         <v>1233</v>
       </c>
@@ -13025,6 +13433,9 @@
       <c r="B456" t="s">
         <v>6</v>
       </c>
+      <c r="C456" t="s">
+        <v>1581</v>
+      </c>
       <c r="D456" t="s">
         <v>1234</v>
       </c>
@@ -13039,6 +13450,9 @@
       <c r="B457" t="s">
         <v>6</v>
       </c>
+      <c r="C457" t="s">
+        <v>1581</v>
+      </c>
       <c r="D457" t="s">
         <v>1235</v>
       </c>
@@ -13053,6 +13467,9 @@
       <c r="B458" t="s">
         <v>6</v>
       </c>
+      <c r="C458" t="s">
+        <v>1581</v>
+      </c>
       <c r="D458" t="s">
         <v>1236</v>
       </c>
@@ -13067,6 +13484,9 @@
       <c r="B459" t="s">
         <v>6</v>
       </c>
+      <c r="C459" t="s">
+        <v>1582</v>
+      </c>
       <c r="D459" t="s">
         <v>1237</v>
       </c>
@@ -13081,6 +13501,9 @@
       <c r="B460" t="s">
         <v>6</v>
       </c>
+      <c r="C460" t="s">
+        <v>1582</v>
+      </c>
       <c r="D460" t="s">
         <v>1238</v>
       </c>
@@ -13095,6 +13518,9 @@
       <c r="B461" t="s">
         <v>6</v>
       </c>
+      <c r="C461" t="s">
+        <v>1582</v>
+      </c>
       <c r="D461" t="s">
         <v>1239</v>
       </c>
@@ -13109,6 +13535,9 @@
       <c r="B462" t="s">
         <v>6</v>
       </c>
+      <c r="C462" t="s">
+        <v>1582</v>
+      </c>
       <c r="D462" t="s">
         <v>1240</v>
       </c>
@@ -13123,6 +13552,9 @@
       <c r="B463" t="s">
         <v>6</v>
       </c>
+      <c r="C463" t="s">
+        <v>1582</v>
+      </c>
       <c r="D463" t="s">
         <v>1241</v>
       </c>
@@ -13137,6 +13569,9 @@
       <c r="B464" t="s">
         <v>6</v>
       </c>
+      <c r="C464" t="s">
+        <v>1582</v>
+      </c>
       <c r="D464" t="s">
         <v>1242</v>
       </c>
@@ -13151,6 +13586,9 @@
       <c r="B465" t="s">
         <v>6</v>
       </c>
+      <c r="C465" t="s">
+        <v>1583</v>
+      </c>
       <c r="D465" t="s">
         <v>1243</v>
       </c>
@@ -13165,6 +13603,9 @@
       <c r="B466" t="s">
         <v>6</v>
       </c>
+      <c r="C466" t="s">
+        <v>1583</v>
+      </c>
       <c r="D466" t="s">
         <v>1244</v>
       </c>
@@ -13179,6 +13620,9 @@
       <c r="B467" t="s">
         <v>6</v>
       </c>
+      <c r="C467" t="s">
+        <v>1583</v>
+      </c>
       <c r="D467" t="s">
         <v>1245</v>
       </c>
@@ -13193,6 +13637,9 @@
       <c r="B468" t="s">
         <v>6</v>
       </c>
+      <c r="C468" t="s">
+        <v>1583</v>
+      </c>
       <c r="D468" t="s">
         <v>1246</v>
       </c>
@@ -13207,6 +13654,9 @@
       <c r="B469" t="s">
         <v>6</v>
       </c>
+      <c r="C469" t="s">
+        <v>1583</v>
+      </c>
       <c r="D469" t="s">
         <v>1247</v>
       </c>
@@ -13221,6 +13671,9 @@
       <c r="B470" t="s">
         <v>6</v>
       </c>
+      <c r="C470" t="s">
+        <v>1583</v>
+      </c>
       <c r="D470" t="s">
         <v>1248</v>
       </c>
@@ -13235,6 +13688,9 @@
       <c r="B471" t="s">
         <v>6</v>
       </c>
+      <c r="C471" t="s">
+        <v>1584</v>
+      </c>
       <c r="D471" t="s">
         <v>1249</v>
       </c>
@@ -13249,6 +13705,9 @@
       <c r="B472" t="s">
         <v>6</v>
       </c>
+      <c r="C472" t="s">
+        <v>1584</v>
+      </c>
       <c r="D472" t="s">
         <v>1250</v>
       </c>
@@ -13263,6 +13722,9 @@
       <c r="B473" t="s">
         <v>6</v>
       </c>
+      <c r="C473" t="s">
+        <v>1584</v>
+      </c>
       <c r="D473" t="s">
         <v>1251</v>
       </c>
@@ -13277,6 +13739,9 @@
       <c r="B474" t="s">
         <v>6</v>
       </c>
+      <c r="C474" t="s">
+        <v>1584</v>
+      </c>
       <c r="D474" t="s">
         <v>1252</v>
       </c>
@@ -13291,6 +13756,9 @@
       <c r="B475" t="s">
         <v>6</v>
       </c>
+      <c r="C475" t="s">
+        <v>1584</v>
+      </c>
       <c r="D475" t="s">
         <v>1253</v>
       </c>
@@ -13305,6 +13773,9 @@
       <c r="B476" t="s">
         <v>6</v>
       </c>
+      <c r="C476" t="s">
+        <v>1584</v>
+      </c>
       <c r="D476" t="s">
         <v>1254</v>
       </c>
@@ -13319,6 +13790,9 @@
       <c r="B477" t="s">
         <v>6</v>
       </c>
+      <c r="C477" t="s">
+        <v>1585</v>
+      </c>
       <c r="D477" t="s">
         <v>1255</v>
       </c>
@@ -13333,6 +13807,9 @@
       <c r="B478" t="s">
         <v>6</v>
       </c>
+      <c r="C478" t="s">
+        <v>1585</v>
+      </c>
       <c r="D478" t="s">
         <v>1256</v>
       </c>
@@ -13347,6 +13824,9 @@
       <c r="B479" t="s">
         <v>6</v>
       </c>
+      <c r="C479" t="s">
+        <v>1585</v>
+      </c>
       <c r="D479" t="s">
         <v>1257</v>
       </c>
@@ -13361,6 +13841,9 @@
       <c r="B480" t="s">
         <v>6</v>
       </c>
+      <c r="C480" t="s">
+        <v>1585</v>
+      </c>
       <c r="D480" t="s">
         <v>1258</v>
       </c>
@@ -13375,6 +13858,9 @@
       <c r="B481" t="s">
         <v>6</v>
       </c>
+      <c r="C481" t="s">
+        <v>1585</v>
+      </c>
       <c r="D481" t="s">
         <v>1259</v>
       </c>
@@ -13389,6 +13875,9 @@
       <c r="B482" t="s">
         <v>6</v>
       </c>
+      <c r="C482" t="s">
+        <v>1585</v>
+      </c>
       <c r="D482" t="s">
         <v>1260</v>
       </c>
@@ -13403,6 +13892,9 @@
       <c r="B483" t="s">
         <v>6</v>
       </c>
+      <c r="C483" t="s">
+        <v>1586</v>
+      </c>
       <c r="D483" t="s">
         <v>1261</v>
       </c>
@@ -13417,6 +13909,9 @@
       <c r="B484" t="s">
         <v>6</v>
       </c>
+      <c r="C484" t="s">
+        <v>1586</v>
+      </c>
       <c r="D484" t="s">
         <v>1262</v>
       </c>
@@ -13431,6 +13926,9 @@
       <c r="B485" t="s">
         <v>6</v>
       </c>
+      <c r="C485" t="s">
+        <v>1586</v>
+      </c>
       <c r="D485" t="s">
         <v>1263</v>
       </c>
@@ -13445,6 +13943,9 @@
       <c r="B486" t="s">
         <v>6</v>
       </c>
+      <c r="C486" t="s">
+        <v>1586</v>
+      </c>
       <c r="D486" t="s">
         <v>1264</v>
       </c>
@@ -13459,6 +13960,9 @@
       <c r="B487" t="s">
         <v>6</v>
       </c>
+      <c r="C487" t="s">
+        <v>1586</v>
+      </c>
       <c r="D487" t="s">
         <v>1265</v>
       </c>
@@ -13473,6 +13977,9 @@
       <c r="B488" t="s">
         <v>6</v>
       </c>
+      <c r="C488" t="s">
+        <v>1586</v>
+      </c>
       <c r="D488" t="s">
         <v>1266</v>
       </c>
@@ -13487,6 +13994,9 @@
       <c r="B489" t="s">
         <v>6</v>
       </c>
+      <c r="C489" t="s">
+        <v>1587</v>
+      </c>
       <c r="D489" t="s">
         <v>1267</v>
       </c>
@@ -13501,6 +14011,9 @@
       <c r="B490" t="s">
         <v>6</v>
       </c>
+      <c r="C490" t="s">
+        <v>1587</v>
+      </c>
       <c r="D490" t="s">
         <v>1268</v>
       </c>
@@ -13515,6 +14028,9 @@
       <c r="B491" t="s">
         <v>6</v>
       </c>
+      <c r="C491" t="s">
+        <v>1587</v>
+      </c>
       <c r="D491" t="s">
         <v>1269</v>
       </c>
@@ -13529,6 +14045,9 @@
       <c r="B492" t="s">
         <v>6</v>
       </c>
+      <c r="C492" t="s">
+        <v>1587</v>
+      </c>
       <c r="D492" t="s">
         <v>1270</v>
       </c>
@@ -13543,6 +14062,9 @@
       <c r="B493" t="s">
         <v>6</v>
       </c>
+      <c r="C493" t="s">
+        <v>1587</v>
+      </c>
       <c r="D493" t="s">
         <v>1271</v>
       </c>
@@ -13557,6 +14079,9 @@
       <c r="B494" t="s">
         <v>6</v>
       </c>
+      <c r="C494" t="s">
+        <v>1587</v>
+      </c>
       <c r="D494" t="s">
         <v>1272</v>
       </c>
@@ -13571,6 +14096,9 @@
       <c r="B495" t="s">
         <v>6</v>
       </c>
+      <c r="C495" t="s">
+        <v>1587</v>
+      </c>
       <c r="D495" t="s">
         <v>1273</v>
       </c>
@@ -13585,6 +14113,9 @@
       <c r="B496" t="s">
         <v>6</v>
       </c>
+      <c r="C496" t="s">
+        <v>1588</v>
+      </c>
       <c r="D496" t="s">
         <v>1274</v>
       </c>
@@ -13599,6 +14130,9 @@
       <c r="B497" t="s">
         <v>6</v>
       </c>
+      <c r="C497" t="s">
+        <v>1588</v>
+      </c>
       <c r="D497" t="s">
         <v>1275</v>
       </c>
@@ -13613,6 +14147,9 @@
       <c r="B498" t="s">
         <v>6</v>
       </c>
+      <c r="C498" t="s">
+        <v>1588</v>
+      </c>
       <c r="D498" t="s">
         <v>1276</v>
       </c>
@@ -13627,6 +14164,9 @@
       <c r="B499" t="s">
         <v>6</v>
       </c>
+      <c r="C499" t="s">
+        <v>1588</v>
+      </c>
       <c r="D499" t="s">
         <v>1277</v>
       </c>
@@ -13641,6 +14181,9 @@
       <c r="B500" t="s">
         <v>6</v>
       </c>
+      <c r="C500" t="s">
+        <v>1588</v>
+      </c>
       <c r="D500" t="s">
         <v>1278</v>
       </c>
@@ -13655,6 +14198,9 @@
       <c r="B501" t="s">
         <v>6</v>
       </c>
+      <c r="C501" t="s">
+        <v>1588</v>
+      </c>
       <c r="D501" t="s">
         <v>1279</v>
       </c>
@@ -13669,6 +14215,9 @@
       <c r="B502" t="s">
         <v>6</v>
       </c>
+      <c r="C502" t="s">
+        <v>1589</v>
+      </c>
       <c r="D502" t="s">
         <v>1280</v>
       </c>
@@ -13683,6 +14232,9 @@
       <c r="B503" t="s">
         <v>6</v>
       </c>
+      <c r="C503" t="s">
+        <v>1589</v>
+      </c>
       <c r="D503" t="s">
         <v>1281</v>
       </c>
@@ -13697,6 +14249,9 @@
       <c r="B504" t="s">
         <v>6</v>
       </c>
+      <c r="C504" t="s">
+        <v>1589</v>
+      </c>
       <c r="D504" t="s">
         <v>1282</v>
       </c>
@@ -13711,6 +14266,9 @@
       <c r="B505" t="s">
         <v>6</v>
       </c>
+      <c r="C505" t="s">
+        <v>1589</v>
+      </c>
       <c r="D505" t="s">
         <v>1283</v>
       </c>
@@ -13725,6 +14283,9 @@
       <c r="B506" t="s">
         <v>6</v>
       </c>
+      <c r="C506" t="s">
+        <v>1589</v>
+      </c>
       <c r="D506" t="s">
         <v>1284</v>
       </c>
@@ -13739,6 +14300,9 @@
       <c r="B507" t="s">
         <v>6</v>
       </c>
+      <c r="C507" t="s">
+        <v>1589</v>
+      </c>
       <c r="D507" t="s">
         <v>1285</v>
       </c>
@@ -13753,6 +14317,9 @@
       <c r="B508" t="s">
         <v>6</v>
       </c>
+      <c r="C508" t="s">
+        <v>1590</v>
+      </c>
       <c r="D508" t="s">
         <v>1286</v>
       </c>
@@ -13767,6 +14334,9 @@
       <c r="B509" t="s">
         <v>6</v>
       </c>
+      <c r="C509" t="s">
+        <v>1590</v>
+      </c>
       <c r="D509" t="s">
         <v>1287</v>
       </c>
@@ -13781,6 +14351,9 @@
       <c r="B510" t="s">
         <v>6</v>
       </c>
+      <c r="C510" t="s">
+        <v>1590</v>
+      </c>
       <c r="D510" t="s">
         <v>1288</v>
       </c>
@@ -13795,6 +14368,9 @@
       <c r="B511" t="s">
         <v>6</v>
       </c>
+      <c r="C511" t="s">
+        <v>1590</v>
+      </c>
       <c r="D511" t="s">
         <v>1289</v>
       </c>
@@ -13809,6 +14385,9 @@
       <c r="B512" t="s">
         <v>6</v>
       </c>
+      <c r="C512" t="s">
+        <v>1590</v>
+      </c>
       <c r="D512" t="s">
         <v>1290</v>
       </c>
@@ -13823,6 +14402,9 @@
       <c r="B513" t="s">
         <v>6</v>
       </c>
+      <c r="C513" t="s">
+        <v>1590</v>
+      </c>
       <c r="D513" t="s">
         <v>1291</v>
       </c>
@@ -13837,6 +14419,9 @@
       <c r="B514" t="s">
         <v>6</v>
       </c>
+      <c r="C514" t="s">
+        <v>1591</v>
+      </c>
       <c r="D514" t="s">
         <v>1292</v>
       </c>
@@ -13851,6 +14436,9 @@
       <c r="B515" t="s">
         <v>6</v>
       </c>
+      <c r="C515" t="s">
+        <v>1591</v>
+      </c>
       <c r="D515" t="s">
         <v>1293</v>
       </c>
@@ -13865,6 +14453,9 @@
       <c r="B516" t="s">
         <v>6</v>
       </c>
+      <c r="C516" t="s">
+        <v>1591</v>
+      </c>
       <c r="D516" t="s">
         <v>1294</v>
       </c>
@@ -13879,6 +14470,9 @@
       <c r="B517" t="s">
         <v>6</v>
       </c>
+      <c r="C517" t="s">
+        <v>1591</v>
+      </c>
       <c r="D517" t="s">
         <v>1295</v>
       </c>
@@ -13893,6 +14487,9 @@
       <c r="B518" t="s">
         <v>6</v>
       </c>
+      <c r="C518" t="s">
+        <v>1591</v>
+      </c>
       <c r="D518" t="s">
         <v>1296</v>
       </c>
@@ -13907,6 +14504,9 @@
       <c r="B519" t="s">
         <v>6</v>
       </c>
+      <c r="C519" t="s">
+        <v>1591</v>
+      </c>
       <c r="D519" t="s">
         <v>1297</v>
       </c>
@@ -13921,6 +14521,9 @@
       <c r="B520" t="s">
         <v>6</v>
       </c>
+      <c r="C520" t="s">
+        <v>1591</v>
+      </c>
       <c r="D520" t="s">
         <v>1298</v>
       </c>
@@ -13935,6 +14538,9 @@
       <c r="B521" t="s">
         <v>6</v>
       </c>
+      <c r="C521" t="s">
+        <v>1592</v>
+      </c>
       <c r="D521" t="s">
         <v>1299</v>
       </c>
@@ -13949,6 +14555,9 @@
       <c r="B522" t="s">
         <v>6</v>
       </c>
+      <c r="C522" t="s">
+        <v>1592</v>
+      </c>
       <c r="D522" t="s">
         <v>1300</v>
       </c>
@@ -13963,6 +14572,9 @@
       <c r="B523" t="s">
         <v>6</v>
       </c>
+      <c r="C523" t="s">
+        <v>1592</v>
+      </c>
       <c r="D523" t="s">
         <v>1301</v>
       </c>
@@ -13977,6 +14589,9 @@
       <c r="B524" t="s">
         <v>6</v>
       </c>
+      <c r="C524" t="s">
+        <v>1592</v>
+      </c>
       <c r="D524" t="s">
         <v>1302</v>
       </c>
@@ -13991,6 +14606,9 @@
       <c r="B525" t="s">
         <v>6</v>
       </c>
+      <c r="C525" t="s">
+        <v>1592</v>
+      </c>
       <c r="D525" t="s">
         <v>1303</v>
       </c>
@@ -14005,6 +14623,9 @@
       <c r="B526" t="s">
         <v>6</v>
       </c>
+      <c r="C526" t="s">
+        <v>1592</v>
+      </c>
       <c r="D526" t="s">
         <v>1304</v>
       </c>
@@ -14019,6 +14640,9 @@
       <c r="B527" t="s">
         <v>6</v>
       </c>
+      <c r="C527" t="s">
+        <v>1593</v>
+      </c>
       <c r="D527" t="s">
         <v>1305</v>
       </c>
@@ -14033,6 +14657,9 @@
       <c r="B528" t="s">
         <v>6</v>
       </c>
+      <c r="C528" t="s">
+        <v>1593</v>
+      </c>
       <c r="D528" t="s">
         <v>1306</v>
       </c>
@@ -14047,6 +14674,9 @@
       <c r="B529" t="s">
         <v>6</v>
       </c>
+      <c r="C529" t="s">
+        <v>1593</v>
+      </c>
       <c r="D529" t="s">
         <v>1307</v>
       </c>
@@ -14061,6 +14691,9 @@
       <c r="B530" t="s">
         <v>6</v>
       </c>
+      <c r="C530" t="s">
+        <v>1593</v>
+      </c>
       <c r="D530" t="s">
         <v>1308</v>
       </c>
@@ -14075,6 +14708,9 @@
       <c r="B531" t="s">
         <v>6</v>
       </c>
+      <c r="C531" t="s">
+        <v>1593</v>
+      </c>
       <c r="D531" t="s">
         <v>1309</v>
       </c>
@@ -14089,6 +14725,9 @@
       <c r="B532" t="s">
         <v>6</v>
       </c>
+      <c r="C532" t="s">
+        <v>1593</v>
+      </c>
       <c r="D532" t="s">
         <v>1310</v>
       </c>
@@ -14103,6 +14742,9 @@
       <c r="B533" t="s">
         <v>6</v>
       </c>
+      <c r="C533" t="s">
+        <v>1594</v>
+      </c>
       <c r="D533" t="s">
         <v>1311</v>
       </c>
@@ -14117,6 +14759,9 @@
       <c r="B534" t="s">
         <v>6</v>
       </c>
+      <c r="C534" t="s">
+        <v>1594</v>
+      </c>
       <c r="D534" t="s">
         <v>1312</v>
       </c>
@@ -14131,6 +14776,9 @@
       <c r="B535" t="s">
         <v>6</v>
       </c>
+      <c r="C535" t="s">
+        <v>1594</v>
+      </c>
       <c r="D535" t="s">
         <v>1313</v>
       </c>
@@ -14145,6 +14793,9 @@
       <c r="B536" t="s">
         <v>6</v>
       </c>
+      <c r="C536" t="s">
+        <v>1594</v>
+      </c>
       <c r="D536" t="s">
         <v>1314</v>
       </c>
@@ -14159,6 +14810,9 @@
       <c r="B537" t="s">
         <v>6</v>
       </c>
+      <c r="C537" t="s">
+        <v>1594</v>
+      </c>
       <c r="D537" t="s">
         <v>1315</v>
       </c>
@@ -14173,6 +14827,9 @@
       <c r="B538" t="s">
         <v>6</v>
       </c>
+      <c r="C538" t="s">
+        <v>1595</v>
+      </c>
       <c r="D538" t="s">
         <v>1316</v>
       </c>
@@ -14187,6 +14844,9 @@
       <c r="B539" t="s">
         <v>6</v>
       </c>
+      <c r="C539" t="s">
+        <v>1595</v>
+      </c>
       <c r="D539" t="s">
         <v>1317</v>
       </c>
@@ -14201,6 +14861,9 @@
       <c r="B540" t="s">
         <v>6</v>
       </c>
+      <c r="C540" t="s">
+        <v>1595</v>
+      </c>
       <c r="D540" t="s">
         <v>1318</v>
       </c>
@@ -14215,6 +14878,9 @@
       <c r="B541" t="s">
         <v>6</v>
       </c>
+      <c r="C541" t="s">
+        <v>1595</v>
+      </c>
       <c r="D541" t="s">
         <v>1319</v>
       </c>
@@ -14229,6 +14895,9 @@
       <c r="B542" t="s">
         <v>6</v>
       </c>
+      <c r="C542" t="s">
+        <v>1595</v>
+      </c>
       <c r="D542" t="s">
         <v>1320</v>
       </c>
@@ -14243,6 +14912,9 @@
       <c r="B543" t="s">
         <v>6</v>
       </c>
+      <c r="C543" t="s">
+        <v>1595</v>
+      </c>
       <c r="D543" t="s">
         <v>1321</v>
       </c>
@@ -14257,6 +14929,9 @@
       <c r="B544" t="s">
         <v>6</v>
       </c>
+      <c r="C544" t="s">
+        <v>1595</v>
+      </c>
       <c r="D544" t="s">
         <v>1322</v>
       </c>
@@ -14271,6 +14946,9 @@
       <c r="B545" t="s">
         <v>6</v>
       </c>
+      <c r="C545" t="s">
+        <v>1596</v>
+      </c>
       <c r="D545" t="s">
         <v>1323</v>
       </c>
@@ -14285,6 +14963,9 @@
       <c r="B546" t="s">
         <v>6</v>
       </c>
+      <c r="C546" t="s">
+        <v>1596</v>
+      </c>
       <c r="D546" t="s">
         <v>1324</v>
       </c>
@@ -14299,6 +14980,9 @@
       <c r="B547" t="s">
         <v>6</v>
       </c>
+      <c r="C547" t="s">
+        <v>1596</v>
+      </c>
       <c r="D547" t="s">
         <v>1325</v>
       </c>
@@ -14313,6 +14997,9 @@
       <c r="B548" t="s">
         <v>6</v>
       </c>
+      <c r="C548" t="s">
+        <v>1596</v>
+      </c>
       <c r="D548" t="s">
         <v>1326</v>
       </c>
@@ -14327,6 +15014,9 @@
       <c r="B549" t="s">
         <v>6</v>
       </c>
+      <c r="C549" t="s">
+        <v>1596</v>
+      </c>
       <c r="D549" t="s">
         <v>1327</v>
       </c>
@@ -14340,6 +15030,9 @@
       </c>
       <c r="B550" t="s">
         <v>6</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1596</v>
       </c>
       <c r="D550" t="s">
         <v>1328</v>
